--- a/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057852</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769893</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9660706434537709</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419925934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208834083</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050737294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508782939</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816591</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981064</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572514</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.9475391330285313</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
+        <v>0.9533716596442546</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9598754494005832</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057851</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.970642461629057</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208834081</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9490745509764514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.933278105073729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9494987508782936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981065</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
+        <v>0.9460223821572517</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
+        <v>0.9475391330285317</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
+        <v>0.9533716596442547</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.959875449400583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9800300091604082</v>
+      </c>
+      <c r="D2">
+        <v>1.000880456260551</v>
+      </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
+      <c r="F2">
+        <v>0.9887335038456223</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.033830176962474</v>
+      </c>
+      <c r="J2">
+        <v>1.002824878926069</v>
+      </c>
+      <c r="K2">
+        <v>1.012327538542644</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
+      <c r="M2">
+        <v>1.000352062881287</v>
+      </c>
+      <c r="N2">
+        <v>1.004249005279765</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9899358732528414</v>
+      </c>
+      <c r="D3">
+        <v>1.008458053163224</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057848</v>
+      </c>
+      <c r="F3">
+        <v>0.9985157583154963</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.036903765439791</v>
+      </c>
+      <c r="J3">
+        <v>1.01070470787789</v>
+      </c>
+      <c r="K3">
+        <v>1.018983843508025</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9683942856474066</v>
+      </c>
+      <c r="M3">
+        <v>1.009167665584351</v>
+      </c>
+      <c r="N3">
+        <v>1.012140024492527</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9960859312432733</v>
+      </c>
+      <c r="D4">
+        <v>1.013164849824951</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9600238894088612</v>
+      </c>
+      <c r="F4">
+        <v>1.004596989853714</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.038796533506625</v>
+      </c>
+      <c r="J4">
+        <v>1.015590292010323</v>
+      </c>
+      <c r="K4">
+        <v>1.023106941410027</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9706300002952756</v>
+      </c>
+      <c r="M4">
+        <v>1.014640248086301</v>
+      </c>
+      <c r="N4">
+        <v>1.017032546714812</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9986139335653637</v>
+      </c>
+      <c r="D5">
+        <v>1.015099938248234</v>
+      </c>
       <c r="E5">
         <v>0.9612062874769892</v>
       </c>
+      <c r="F5">
+        <v>1.007098510008041</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.039570752393654</v>
+      </c>
+      <c r="J5">
+        <v>1.017596849595121</v>
+      </c>
+      <c r="K5">
+        <v>1.02479935482949</v>
       </c>
       <c r="L5">
         <v>0.9715596031702913</v>
+      </c>
+      <c r="M5">
+        <v>1.016889540367954</v>
+      </c>
+      <c r="N5">
+        <v>1.019041953841536</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9990351514409738</v>
+      </c>
+      <c r="D6">
+        <v>1.015422379222909</v>
+      </c>
       <c r="E6">
         <v>0.9614041218017086</v>
       </c>
+      <c r="F6">
+        <v>1.007515419430988</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.039699526490386</v>
+      </c>
+      <c r="J6">
+        <v>1.017931082611276</v>
+      </c>
+      <c r="K6">
+        <v>1.025081201450095</v>
       </c>
       <c r="L6">
         <v>0.9717150950965047</v>
+      </c>
+      <c r="M6">
+        <v>1.017264303265878</v>
+      </c>
+      <c r="N6">
+        <v>1.019376661506911</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.996119930619196</v>
+      </c>
+      <c r="D7">
+        <v>1.013190873918713</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9600397355691361</v>
+      </c>
+      <c r="F7">
+        <v>1.004630626003353</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.038806961297495</v>
+      </c>
+      <c r="J7">
+        <v>1.015617285194018</v>
+      </c>
+      <c r="K7">
+        <v>1.023129712541801</v>
+      </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290571</v>
+      </c>
+      <c r="M7">
+        <v>1.014670500091871</v>
+      </c>
+      <c r="N7">
+        <v>1.017059578231924</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9834345267983179</v>
+      </c>
+      <c r="D8">
+        <v>1.003484173642706</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
+      </c>
+      <c r="F8">
+        <v>0.9920937950588884</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.034889756368037</v>
+      </c>
+      <c r="J8">
+        <v>1.005534419614325</v>
+      </c>
+      <c r="K8">
+        <v>1.014617155518654</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
+      </c>
+      <c r="M8">
+        <v>1.003381936772007</v>
+      </c>
+      <c r="N8">
+        <v>1.006962393826588</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9588452525051119</v>
+      </c>
+      <c r="D9">
+        <v>0.9846983216352658</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419923924</v>
+      </c>
+      <c r="F9">
+        <v>0.9678635933304351</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.027173102146862</v>
+      </c>
+      <c r="J9">
+        <v>0.9859399496024087</v>
+      </c>
+      <c r="K9">
+        <v>0.9980446343593512</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208832517</v>
+      </c>
+      <c r="M9">
+        <v>0.9815005074525844</v>
+      </c>
+      <c r="N9">
+        <v>0.9873400974197372</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9405299305567187</v>
+      </c>
+      <c r="D10">
+        <v>0.9707445570548425</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547164</v>
+      </c>
+      <c r="F10">
+        <v>0.9498737434456914</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.021348814389837</v>
+      </c>
+      <c r="J10">
+        <v>0.9713192761956072</v>
+      </c>
+      <c r="K10">
+        <v>0.9856629112603245</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689266</v>
+      </c>
+      <c r="M10">
+        <v>0.9652111270573158</v>
+      </c>
+      <c r="N10">
+        <v>0.9726986609796833</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9320205635112977</v>
+      </c>
+      <c r="D11">
+        <v>0.9642761226245679</v>
+      </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
+      <c r="F11">
+        <v>0.9415320332694038</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.018627013904153</v>
+      </c>
+      <c r="J11">
+        <v>0.9645228229823914</v>
+      </c>
+      <c r="K11">
+        <v>0.9799047195613724</v>
+      </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9491556125416571</v>
+      </c>
+      <c r="M11">
+        <v>0.9576477430579839</v>
+      </c>
+      <c r="N11">
+        <v>0.9658925560233403</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9287594543370706</v>
+      </c>
+      <c r="D12">
+        <v>0.9617999159626445</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411971</v>
+      </c>
+      <c r="F12">
+        <v>0.9383379266716784</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.017581795751723</v>
+      </c>
+      <c r="J12">
+        <v>0.961917887446003</v>
+      </c>
+      <c r="K12">
+        <v>0.9776974820355855</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252506</v>
+      </c>
+      <c r="M12">
+        <v>0.954750157246027</v>
+      </c>
+      <c r="N12">
+        <v>0.9632839211797003</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9294637637504318</v>
+      </c>
+      <c r="D13">
+        <v>0.962334574621288</v>
+      </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593368228</v>
+      </c>
+      <c r="F13">
+        <v>0.9390276364020743</v>
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.01780762494925</v>
+      </c>
+      <c r="J13">
+        <v>0.9624804892110347</v>
+      </c>
+      <c r="K13">
+        <v>0.9781741995013498</v>
       </c>
       <c r="L13">
         <v>0.9483836088965214</v>
+      </c>
+      <c r="M13">
+        <v>0.9553759061192834</v>
+      </c>
+      <c r="N13">
+        <v>0.9638473219037695</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9317531349676567</v>
+      </c>
+      <c r="D14">
+        <v>0.9640730014144098</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
+      </c>
+      <c r="F14">
+        <v>0.9412700419583077</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.018541341595051</v>
+      </c>
+      <c r="J14">
+        <v>0.9643092081338553</v>
+      </c>
+      <c r="K14">
+        <v>0.9797237216019289</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
+      </c>
+      <c r="M14">
+        <v>0.9574101036596908</v>
+      </c>
+      <c r="N14">
+        <v>0.9656786378172175</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9331499411527439</v>
+      </c>
+      <c r="D15">
+        <v>0.965134038287551</v>
+      </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050717474</v>
+      </c>
+      <c r="F15">
+        <v>0.9426385619183837</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.018988732526703</v>
+      </c>
+      <c r="J15">
+        <v>0.9654249304030468</v>
+      </c>
+      <c r="K15">
+        <v>0.9806690749679187</v>
+      </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508767193</v>
+      </c>
+      <c r="M15">
+        <v>0.9586513598423403</v>
+      </c>
+      <c r="N15">
+        <v>0.9667959445400066</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9410813994533325</v>
+      </c>
+      <c r="D16">
+        <v>0.971164099945644</v>
+      </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
+      </c>
+      <c r="F16">
+        <v>0.9504147053399042</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.021524903353727</v>
+      </c>
+      <c r="J16">
+        <v>0.971759682426794</v>
+      </c>
+      <c r="K16">
+        <v>0.9860359977083815</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0.9657014077726493</v>
+      </c>
+      <c r="N16">
+        <v>0.9731396926382334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9458930917937944</v>
+      </c>
+      <c r="D17">
+        <v>0.9748263786816865</v>
+      </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
+      </c>
+      <c r="F17">
+        <v>0.9551365769440266</v>
       </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.023059586427609</v>
+      </c>
+      <c r="J17">
+        <v>0.9756019493806113</v>
+      </c>
+      <c r="K17">
+        <v>0.9892906750024336</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0.9699797710618479</v>
+      </c>
+      <c r="N17">
+        <v>0.9769874160518394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9486448784741686</v>
+      </c>
+      <c r="D18">
+        <v>0.9769221242134311</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215685</v>
+      </c>
+      <c r="F18">
+        <v>0.9578384949571752</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.023935785290712</v>
+      </c>
+      <c r="J18">
+        <v>0.9777989706157455</v>
+      </c>
+      <c r="K18">
+        <v>0.9911514681389223</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9543373515865726</v>
+      </c>
+      <c r="M18">
+        <v>0.9724269655121801</v>
+      </c>
+      <c r="N18">
+        <v>0.9791875573091295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9495742329425026</v>
+      </c>
+      <c r="D19">
+        <v>0.977630122070128</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814680091</v>
+      </c>
+      <c r="F19">
+        <v>0.9587512545006185</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.024231444169761</v>
+      </c>
+      <c r="J19">
+        <v>0.9785408982842745</v>
+      </c>
+      <c r="K19">
+        <v>0.9917798079617409</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9546352493812711</v>
+      </c>
+      <c r="M19">
+        <v>0.9732535142265136</v>
+      </c>
+      <c r="N19">
+        <v>0.9799305386000481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9453825975443081</v>
+      </c>
+      <c r="D20">
+        <v>0.974437691518234</v>
+      </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
+      </c>
+      <c r="F20">
+        <v>0.9546354541418497</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.022896917556413</v>
+      </c>
+      <c r="J20">
+        <v>0.9751943411825799</v>
+      </c>
+      <c r="K20">
+        <v>0.9889454258606495</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0.9695258149555482</v>
+      </c>
+      <c r="N20">
+        <v>0.9765792290034133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9310818656163199</v>
+      </c>
+      <c r="D21">
+        <v>0.9635631951727068</v>
+      </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
+      <c r="F21">
+        <v>0.9406124656723244</v>
+      </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.018326263445648</v>
+      </c>
+      <c r="J21">
+        <v>0.963773012454176</v>
+      </c>
+      <c r="K21">
+        <v>0.9792693942978313</v>
       </c>
       <c r="L21">
         <v>0.9488714019981065</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0.9568136245714531</v>
+      </c>
+      <c r="N21">
+        <v>0.9651416806781707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9215007051898044</v>
+      </c>
+      <c r="D22">
+        <v>0.9562940544146472</v>
+      </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
+      </c>
+      <c r="F22">
+        <v>0.9312337872767077</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.015251685605034</v>
+      </c>
+      <c r="J22">
+        <v>0.9561195158889775</v>
+      </c>
+      <c r="K22">
+        <v>0.9727840702956014</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9460223821572518</v>
+      </c>
+      <c r="M22">
+        <v>0.9483027558956355</v>
+      </c>
+      <c r="N22">
+        <v>0.9574773152699809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9266411031073372</v>
+      </c>
+      <c r="D23">
+        <v>0.9601922744749821</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963314</v>
+      </c>
+      <c r="F23">
+        <v>0.9362639152540432</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.016902280613935</v>
+      </c>
+      <c r="J23">
+        <v>0.9602257331294097</v>
+      </c>
+      <c r="K23">
+        <v>0.9762636202683799</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9475391330285318</v>
+      </c>
+      <c r="M23">
+        <v>0.9528682622093562</v>
+      </c>
+      <c r="N23">
+        <v>0.9615893638098842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.94561343626255</v>
+      </c>
+      <c r="D24">
+        <v>0.9746134466678834</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9381640424011709</v>
+      </c>
+      <c r="F24">
+        <v>0.9548620505640311</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.022970478888477</v>
+      </c>
+      <c r="J24">
+        <v>0.9753786573205624</v>
+      </c>
+      <c r="K24">
+        <v>0.9891015446542354</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.953371659644245</v>
+      </c>
+      <c r="M24">
+        <v>0.9697310865986993</v>
+      </c>
+      <c r="N24">
+        <v>0.9767638068914534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9655057136074838</v>
+      </c>
+      <c r="D25">
+        <v>0.989781778929786</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801717732</v>
+      </c>
+      <c r="F25">
+        <v>0.97441782713749</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.029276734489345</v>
+      </c>
+      <c r="J25">
+        <v>0.9912524470612695</v>
+      </c>
+      <c r="K25">
+        <v>1.002540818116489</v>
+      </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.959875449400561</v>
+      </c>
+      <c r="M25">
+        <v>0.9874266945432031</v>
+      </c>
+      <c r="N25">
+        <v>0.9926601392343415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9800300091604082</v>
+        <v>1.000098950025216</v>
       </c>
       <c r="D2">
-        <v>1.000880456260551</v>
+        <v>1.023695880922228</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.023844224686241</v>
       </c>
       <c r="F2">
-        <v>0.9887335038456223</v>
+        <v>1.031461747309576</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033830176962474</v>
+        <v>1.049852320264242</v>
       </c>
       <c r="J2">
-        <v>1.002824878926069</v>
+        <v>1.022276701916424</v>
       </c>
       <c r="K2">
-        <v>1.012327538542644</v>
+        <v>1.034834677423068</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.034981073106374</v>
       </c>
       <c r="M2">
-        <v>1.000352062881287</v>
+        <v>1.04249950306099</v>
       </c>
       <c r="N2">
-        <v>1.004249005279765</v>
+        <v>1.011420997171108</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9899358732528414</v>
+        <v>1.003957834955123</v>
       </c>
       <c r="D3">
-        <v>1.008458053163224</v>
+        <v>1.026582032688217</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.027435612540297</v>
       </c>
       <c r="F3">
-        <v>0.9985157583154963</v>
+        <v>1.034968219731153</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036903765439791</v>
+        <v>1.050904831705755</v>
       </c>
       <c r="J3">
-        <v>1.01070470787789</v>
+        <v>1.024341183828646</v>
       </c>
       <c r="K3">
-        <v>1.018983843508025</v>
+        <v>1.036885724026313</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.037729083429834</v>
       </c>
       <c r="M3">
-        <v>1.009167665584351</v>
+        <v>1.045172402707222</v>
       </c>
       <c r="N3">
-        <v>1.012140024492527</v>
+        <v>1.012106826407422</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9960859312432733</v>
+        <v>1.00640771683095</v>
       </c>
       <c r="D4">
-        <v>1.013164849824951</v>
+        <v>1.028415178496887</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.029723668606998</v>
       </c>
       <c r="F4">
-        <v>1.004596989853714</v>
+        <v>1.037198761080533</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038796533506625</v>
+        <v>1.051559485630766</v>
       </c>
       <c r="J4">
-        <v>1.015590292010323</v>
+        <v>1.025648920775589</v>
       </c>
       <c r="K4">
-        <v>1.023106941410027</v>
+        <v>1.038182339119418</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.039476117308892</v>
       </c>
       <c r="M4">
-        <v>1.014640248086301</v>
+        <v>1.046868039005439</v>
       </c>
       <c r="N4">
-        <v>1.017032546714812</v>
+        <v>1.012541229995493</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9986139335653637</v>
+        <v>1.007426720436068</v>
       </c>
       <c r="D5">
-        <v>1.015099938248234</v>
+        <v>1.029177806652676</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.030677249035525</v>
       </c>
       <c r="F5">
-        <v>1.007098510008041</v>
+        <v>1.038127547622772</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039570752393654</v>
+        <v>1.051828482225763</v>
       </c>
       <c r="J5">
-        <v>1.017596849595121</v>
+        <v>1.026192128712943</v>
       </c>
       <c r="K5">
-        <v>1.02479935482949</v>
+        <v>1.038720285298468</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>1.040203322347763</v>
       </c>
       <c r="M5">
-        <v>1.016889540367954</v>
+        <v>1.047572968761809</v>
       </c>
       <c r="N5">
-        <v>1.019041953841536</v>
+        <v>1.012721663500466</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990351514409738</v>
+        <v>1.007597184571712</v>
       </c>
       <c r="D6">
-        <v>1.015422379222909</v>
+        <v>1.02930539043697</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>1.030836878821421</v>
       </c>
       <c r="F6">
-        <v>1.007515419430988</v>
+        <v>1.038282978362513</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039699526490386</v>
+        <v>1.051873285967325</v>
       </c>
       <c r="J6">
-        <v>1.017931082611276</v>
+        <v>1.026282955494608</v>
       </c>
       <c r="K6">
-        <v>1.025081201450095</v>
+        <v>1.0388101941006</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>1.040325003920738</v>
       </c>
       <c r="M6">
-        <v>1.017264303265878</v>
+        <v>1.047690871101683</v>
       </c>
       <c r="N6">
-        <v>1.019376661506911</v>
+        <v>1.012751832206503</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.996119930619196</v>
+        <v>1.006421375297445</v>
       </c>
       <c r="D7">
-        <v>1.013190873918713</v>
+        <v>1.028425400042123</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>1.02973644274945</v>
       </c>
       <c r="F7">
-        <v>1.004630626003353</v>
+        <v>1.037211206340965</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038806961297495</v>
+        <v>1.051563104288971</v>
       </c>
       <c r="J7">
-        <v>1.015617285194018</v>
+        <v>1.025656204724112</v>
       </c>
       <c r="K7">
-        <v>1.023129712541801</v>
+        <v>1.038189555069231</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>1.039485862477706</v>
       </c>
       <c r="M7">
-        <v>1.014670500091871</v>
+        <v>1.046877489152582</v>
       </c>
       <c r="N7">
-        <v>1.017059578231924</v>
+        <v>1.012543649490629</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9834345267983179</v>
+        <v>1.001413036784933</v>
       </c>
       <c r="D8">
-        <v>1.003484173642706</v>
+        <v>1.024678516445624</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>1.025065523078087</v>
       </c>
       <c r="F8">
-        <v>0.9920937950588884</v>
+        <v>1.032654880255936</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034889756368037</v>
+        <v>1.050213546603201</v>
       </c>
       <c r="J8">
-        <v>1.005534419614325</v>
+        <v>1.022980329103309</v>
       </c>
       <c r="K8">
-        <v>1.014617155518654</v>
+        <v>1.035534263944406</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.035916341457753</v>
       </c>
       <c r="M8">
-        <v>1.003381936772007</v>
+        <v>1.043409967395734</v>
       </c>
       <c r="N8">
-        <v>1.006962393826588</v>
+        <v>1.011654750771641</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9588452525051119</v>
+        <v>0.9922109748908272</v>
       </c>
       <c r="D9">
-        <v>0.9846983216352658</v>
+        <v>1.017802955315878</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>1.016548499501555</v>
       </c>
       <c r="F9">
-        <v>0.9678635933304351</v>
+        <v>1.024320084364794</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027173102146862</v>
+        <v>1.047628667822306</v>
       </c>
       <c r="J9">
-        <v>0.9859399496024087</v>
+        <v>1.018041814059966</v>
       </c>
       <c r="K9">
-        <v>0.9980446343593512</v>
+        <v>1.030613647601687</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>1.029378675570874</v>
       </c>
       <c r="M9">
-        <v>0.9815005074525844</v>
+        <v>1.037030534180126</v>
       </c>
       <c r="N9">
-        <v>0.9873400974197372</v>
+        <v>1.010014039483703</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9405299305567187</v>
+        <v>0.9857990897691116</v>
       </c>
       <c r="D10">
-        <v>0.9707445570548425</v>
+        <v>1.013021368250134</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547164</v>
+        <v>1.010660421399018</v>
       </c>
       <c r="F10">
-        <v>0.9498737434456914</v>
+        <v>1.018540183243577</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021348814389837</v>
+        <v>1.045759482468518</v>
       </c>
       <c r="J10">
-        <v>0.9713192761956072</v>
+        <v>1.014587689500125</v>
       </c>
       <c r="K10">
-        <v>0.9856629112603245</v>
+        <v>1.02715943166378</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689266</v>
+        <v>1.024839829798097</v>
       </c>
       <c r="M10">
-        <v>0.9652111270573158</v>
+        <v>1.032582567730071</v>
       </c>
       <c r="N10">
-        <v>0.9726986609796833</v>
+        <v>1.008866452231625</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9320205635112977</v>
+        <v>0.9829512180881362</v>
       </c>
       <c r="D11">
-        <v>0.9642761226245679</v>
+        <v>1.010900552828656</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>1.008056816830331</v>
       </c>
       <c r="F11">
-        <v>0.9415320332694038</v>
+        <v>1.01598024273755</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018627013904153</v>
+        <v>1.044913834568809</v>
       </c>
       <c r="J11">
-        <v>0.9645228229823914</v>
+        <v>1.013050857393236</v>
       </c>
       <c r="K11">
-        <v>0.9799047195613724</v>
+        <v>1.025619787430747</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>1.022828376199294</v>
       </c>
       <c r="M11">
-        <v>0.9576477430579839</v>
+        <v>1.030606958885686</v>
       </c>
       <c r="N11">
-        <v>0.9658925560233403</v>
+        <v>1.008355873589515</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9287594543370706</v>
+        <v>0.9818821320239755</v>
       </c>
       <c r="D12">
-        <v>0.9617999159626445</v>
+        <v>1.010104913355329</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>1.00708122677951</v>
       </c>
       <c r="F12">
-        <v>0.9383379266716784</v>
+        <v>1.015020391732537</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017581795751723</v>
+        <v>1.044594121588868</v>
       </c>
       <c r="J12">
-        <v>0.961917887446003</v>
+        <v>1.012473570209084</v>
       </c>
       <c r="K12">
-        <v>0.9776974820355855</v>
+        <v>1.025041046428278</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>1.022074007600799</v>
       </c>
       <c r="M12">
-        <v>0.954750157246027</v>
+        <v>1.029865373583159</v>
       </c>
       <c r="N12">
-        <v>0.9632839211797003</v>
+        <v>1.008164086447903</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9294637637504318</v>
+        <v>0.9821119728428114</v>
       </c>
       <c r="D13">
-        <v>0.962334574621288</v>
+        <v>1.010275942199288</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368228</v>
+        <v>1.007290884900516</v>
       </c>
       <c r="F13">
-        <v>0.9390276364020743</v>
+        <v>1.015226695526477</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01780762494925</v>
+        <v>1.044662957127243</v>
       </c>
       <c r="J13">
-        <v>0.9624804892110347</v>
+        <v>1.012597695898926</v>
       </c>
       <c r="K13">
-        <v>0.9781741995013498</v>
+        <v>1.025165502364057</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.022236154162924</v>
       </c>
       <c r="M13">
-        <v>0.9553759061192834</v>
+        <v>1.030024802188848</v>
       </c>
       <c r="N13">
-        <v>0.9638473219037695</v>
+        <v>1.008205323453682</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9317531349676567</v>
+        <v>0.9828630799151418</v>
       </c>
       <c r="D14">
-        <v>0.9640730014144098</v>
+        <v>1.010834947499909</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>1.007976349817837</v>
       </c>
       <c r="F14">
-        <v>0.9412700419583077</v>
+        <v>1.015901086521133</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018541341595051</v>
+        <v>1.044887522174053</v>
       </c>
       <c r="J14">
-        <v>0.9643092081338553</v>
+        <v>1.01300327153332</v>
       </c>
       <c r="K14">
-        <v>0.9797237216019289</v>
+        <v>1.02557208970254</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>1.022766169033383</v>
       </c>
       <c r="M14">
-        <v>0.9574101036596908</v>
+        <v>1.030545819250255</v>
       </c>
       <c r="N14">
-        <v>0.9656786378172175</v>
+        <v>1.008340064461734</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9331499411527439</v>
+        <v>0.983324353656169</v>
       </c>
       <c r="D15">
-        <v>0.965134038287551</v>
+        <v>1.011178316177187</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>1.008397549982828</v>
       </c>
       <c r="F15">
-        <v>0.9426385619183837</v>
+        <v>1.016315400029452</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018988732526703</v>
+        <v>1.04502513715258</v>
       </c>
       <c r="J15">
-        <v>0.9654249304030468</v>
+        <v>1.013252298960301</v>
       </c>
       <c r="K15">
-        <v>0.9806690749679187</v>
+        <v>1.025821686469316</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>1.023091762064577</v>
       </c>
       <c r="M15">
-        <v>0.9586513598423403</v>
+        <v>1.030865797931533</v>
       </c>
       <c r="N15">
-        <v>0.9667959445400066</v>
+        <v>1.008422797322685</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9410813994533325</v>
+        <v>0.9859865438789808</v>
       </c>
       <c r="D16">
-        <v>0.971164099945644</v>
+        <v>1.013161032879109</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>1.010832043940791</v>
       </c>
       <c r="F16">
-        <v>0.9504147053399042</v>
+        <v>1.018708840810021</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021524903353727</v>
+        <v>1.045814828284747</v>
       </c>
       <c r="J16">
-        <v>0.971759682426794</v>
+        <v>1.01468879521383</v>
       </c>
       <c r="K16">
-        <v>0.9860359977083815</v>
+        <v>1.027260666202232</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>1.024972326892248</v>
       </c>
       <c r="M16">
-        <v>0.9657014077726493</v>
+        <v>1.032712611697536</v>
       </c>
       <c r="N16">
-        <v>0.9731396926382334</v>
+        <v>1.008900042812132</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9458930917937944</v>
+        <v>0.9876369699618176</v>
       </c>
       <c r="D17">
-        <v>0.9748263786816865</v>
+        <v>1.014391044326309</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>1.012344412360337</v>
       </c>
       <c r="F17">
-        <v>0.9551365769440266</v>
+        <v>1.020194605458187</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023059586427609</v>
+        <v>1.046300363956562</v>
       </c>
       <c r="J17">
-        <v>0.9756019493806113</v>
+        <v>1.015578673791713</v>
       </c>
       <c r="K17">
-        <v>0.9892906750024336</v>
+        <v>1.028151365264743</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>1.026139406719966</v>
       </c>
       <c r="M17">
-        <v>0.9699797710618479</v>
+        <v>1.033857578740925</v>
       </c>
       <c r="N17">
-        <v>0.9769874160518394</v>
+        <v>1.009195690948335</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9486448784741686</v>
+        <v>0.9885927752481392</v>
       </c>
       <c r="D18">
-        <v>0.9769221242134311</v>
+        <v>1.015103652261998</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>1.013221364999951</v>
       </c>
       <c r="F18">
-        <v>0.9578384949571752</v>
+        <v>1.021055734190592</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023935785290712</v>
+        <v>1.046580079061704</v>
       </c>
       <c r="J18">
-        <v>0.9777989706157455</v>
+        <v>1.016093770171846</v>
       </c>
       <c r="K18">
-        <v>0.9911514681389223</v>
+        <v>1.028666672187597</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>1.026815717364796</v>
       </c>
       <c r="M18">
-        <v>0.9724269655121801</v>
+        <v>1.034520653349668</v>
       </c>
       <c r="N18">
-        <v>0.9791875573091295</v>
+        <v>1.009366824770077</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9495742329425026</v>
+        <v>0.9889175318034497</v>
       </c>
       <c r="D19">
-        <v>0.977630122070128</v>
+        <v>1.015345821811103</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680091</v>
+        <v>1.013519514649356</v>
       </c>
       <c r="F19">
-        <v>0.9587512545006185</v>
+        <v>1.021348436394989</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024231444169761</v>
+        <v>1.046674867226368</v>
       </c>
       <c r="J19">
-        <v>0.9785408982842745</v>
+        <v>1.016268741386374</v>
       </c>
       <c r="K19">
-        <v>0.9917798079617409</v>
+        <v>1.028841669517215</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812711</v>
+        <v>1.027045579669003</v>
       </c>
       <c r="M19">
-        <v>0.9732535142265136</v>
+        <v>1.034745945292881</v>
       </c>
       <c r="N19">
-        <v>0.9799305386000481</v>
+        <v>1.009424956739768</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9453825975443081</v>
+        <v>0.9874606081175995</v>
       </c>
       <c r="D20">
-        <v>0.974437691518234</v>
+        <v>1.014259578220512</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>1.012182688649652</v>
       </c>
       <c r="F20">
-        <v>0.9546354541418497</v>
+        <v>1.020035767786344</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022896917556413</v>
+        <v>1.046248632588448</v>
       </c>
       <c r="J20">
-        <v>0.9751943411825799</v>
+        <v>1.015483609083688</v>
       </c>
       <c r="K20">
-        <v>0.9889454258606495</v>
+        <v>1.028056240199654</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.02601465013841</v>
       </c>
       <c r="M20">
-        <v>0.9695258149555482</v>
+        <v>1.033735229644084</v>
       </c>
       <c r="N20">
-        <v>0.9765792290034133</v>
+        <v>1.00916410706339</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9310818656163199</v>
+        <v>0.9826422127640058</v>
       </c>
       <c r="D21">
-        <v>0.9635631951727068</v>
+        <v>1.010670554306236</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>1.007774735143865</v>
       </c>
       <c r="F21">
-        <v>0.9406124656723244</v>
+        <v>1.015702746105546</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018326263445648</v>
+        <v>1.044821549260245</v>
       </c>
       <c r="J21">
-        <v>0.963773012454176</v>
+        <v>1.01288401948591</v>
       </c>
       <c r="K21">
-        <v>0.9792693942978313</v>
+        <v>1.025452550969918</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>1.022610294798229</v>
       </c>
       <c r="M21">
-        <v>0.9568136245714531</v>
+        <v>1.030392609341332</v>
       </c>
       <c r="N21">
-        <v>0.9651416806781707</v>
+        <v>1.008300446229759</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9215007051898044</v>
+        <v>0.9795472699759393</v>
       </c>
       <c r="D22">
-        <v>0.9562940544146472</v>
+        <v>1.008368268911649</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>1.004953925098295</v>
       </c>
       <c r="F22">
-        <v>0.9312337872767077</v>
+        <v>1.012926271603455</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015251685605034</v>
+        <v>1.043891793968676</v>
       </c>
       <c r="J22">
-        <v>0.9561195158889775</v>
+        <v>1.01121216176564</v>
       </c>
       <c r="K22">
-        <v>0.9727840702956014</v>
+        <v>1.023775751794216</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>1.0204278784479</v>
       </c>
       <c r="M22">
-        <v>0.9483027558956355</v>
+        <v>1.028245933356514</v>
       </c>
       <c r="N22">
-        <v>0.9574773152699809</v>
+        <v>1.007745028606884</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9266411031073372</v>
+        <v>0.9811943414799463</v>
       </c>
       <c r="D23">
-        <v>0.9601922744749821</v>
+        <v>1.009593195781816</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>1.006454100067206</v>
       </c>
       <c r="F23">
-        <v>0.9362639152540432</v>
+        <v>1.014403207603035</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016902280613935</v>
+        <v>1.04438780757982</v>
       </c>
       <c r="J23">
-        <v>0.9602257331294097</v>
+        <v>1.012102078192194</v>
       </c>
       <c r="K23">
-        <v>0.9762636202683799</v>
+        <v>1.024668509256306</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>1.0215889004615</v>
       </c>
       <c r="M23">
-        <v>0.9528682622093562</v>
+        <v>1.029388301731977</v>
       </c>
       <c r="N23">
-        <v>0.9615893638098842</v>
+        <v>1.008040670160397</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.94561343626255</v>
+        <v>0.9875403196065166</v>
       </c>
       <c r="D24">
-        <v>0.9746134466678834</v>
+        <v>1.014318997020454</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>1.012255780633455</v>
       </c>
       <c r="F24">
-        <v>0.9548620505640311</v>
+        <v>1.020107556639997</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022970478888477</v>
+        <v>1.046272018540029</v>
       </c>
       <c r="J24">
-        <v>0.9753786573205624</v>
+        <v>1.015526576936374</v>
       </c>
       <c r="K24">
-        <v>0.9891015446542354</v>
+        <v>1.028099236153948</v>
       </c>
       <c r="L24">
-        <v>0.953371659644245</v>
+        <v>1.026071035927872</v>
       </c>
       <c r="M24">
-        <v>0.9697310865986993</v>
+        <v>1.033790528639065</v>
       </c>
       <c r="N24">
-        <v>0.9767638068914534</v>
+        <v>1.009178382512326</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9655057136074838</v>
+        <v>0.9946369485381301</v>
       </c>
       <c r="D25">
-        <v>0.989781778929786</v>
+        <v>1.019614235960109</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>1.018786032949379</v>
       </c>
       <c r="F25">
-        <v>0.97441782713749</v>
+        <v>1.026512847404194</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029276734489345</v>
+        <v>1.048322111593166</v>
       </c>
       <c r="J25">
-        <v>0.9912524470612695</v>
+        <v>1.019346158625243</v>
       </c>
       <c r="K25">
-        <v>1.002540818116489</v>
+        <v>1.031915509612686</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>1.031099555154857</v>
       </c>
       <c r="M25">
-        <v>0.9874266945432031</v>
+        <v>1.038713069211197</v>
       </c>
       <c r="N25">
-        <v>0.9926601392343415</v>
+        <v>1.010447391088946</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000098950025216</v>
+        <v>1.026551335456299</v>
       </c>
       <c r="D2">
-        <v>1.023695880922228</v>
+        <v>1.037378488097944</v>
       </c>
       <c r="E2">
-        <v>1.023844224686241</v>
+        <v>1.047964084582233</v>
       </c>
       <c r="F2">
-        <v>1.031461747309576</v>
+        <v>1.051988769712932</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049852320264242</v>
+        <v>1.03597085415986</v>
       </c>
       <c r="J2">
-        <v>1.022276701916424</v>
+        <v>1.031714145944161</v>
       </c>
       <c r="K2">
-        <v>1.034834677423068</v>
+        <v>1.040169542702951</v>
       </c>
       <c r="L2">
-        <v>1.034981073106374</v>
+        <v>1.050725252719756</v>
       </c>
       <c r="M2">
-        <v>1.04249950306099</v>
+        <v>1.054738745987476</v>
       </c>
       <c r="N2">
-        <v>1.011420997171108</v>
+        <v>1.01460960757403</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003957834955123</v>
+        <v>1.027367332931989</v>
       </c>
       <c r="D3">
-        <v>1.026582032688217</v>
+        <v>1.03800318373375</v>
       </c>
       <c r="E3">
-        <v>1.027435612540297</v>
+        <v>1.048799478953313</v>
       </c>
       <c r="F3">
-        <v>1.034968219731153</v>
+        <v>1.052782148601883</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050904831705755</v>
+        <v>1.03611461768672</v>
       </c>
       <c r="J3">
-        <v>1.024341183828646</v>
+        <v>1.032170638673613</v>
       </c>
       <c r="K3">
-        <v>1.036885724026313</v>
+        <v>1.04060452395568</v>
       </c>
       <c r="L3">
-        <v>1.037729083429834</v>
+        <v>1.051372536393778</v>
       </c>
       <c r="M3">
-        <v>1.045172402707222</v>
+        <v>1.055344930777183</v>
       </c>
       <c r="N3">
-        <v>1.012106826407422</v>
+        <v>1.014760818067133</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00640771683095</v>
+        <v>1.027895795192256</v>
       </c>
       <c r="D4">
-        <v>1.028415178496887</v>
+        <v>1.038407506053869</v>
       </c>
       <c r="E4">
-        <v>1.029723668606998</v>
+        <v>1.049341137359727</v>
       </c>
       <c r="F4">
-        <v>1.037198761080533</v>
+        <v>1.053296156182433</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051559485630766</v>
+        <v>1.036206033259433</v>
       </c>
       <c r="J4">
-        <v>1.025648920775589</v>
+        <v>1.032465820402144</v>
       </c>
       <c r="K4">
-        <v>1.038182339119418</v>
+        <v>1.04088539762326</v>
       </c>
       <c r="L4">
-        <v>1.039476117308892</v>
+        <v>1.051791825357059</v>
       </c>
       <c r="M4">
-        <v>1.046868039005439</v>
+        <v>1.055737153455715</v>
       </c>
       <c r="N4">
-        <v>1.012541229995493</v>
+        <v>1.014858577831136</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007426720436068</v>
+        <v>1.028118068554504</v>
       </c>
       <c r="D5">
-        <v>1.029177806652676</v>
+        <v>1.038577505802278</v>
       </c>
       <c r="E5">
-        <v>1.030677249035525</v>
+        <v>1.049569112481967</v>
       </c>
       <c r="F5">
-        <v>1.038127547622772</v>
+        <v>1.053512395768915</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051828482225763</v>
+        <v>1.036244078248415</v>
       </c>
       <c r="J5">
-        <v>1.026192128712943</v>
+        <v>1.032589865743561</v>
       </c>
       <c r="K5">
-        <v>1.038720285298468</v>
+        <v>1.041003334648157</v>
       </c>
       <c r="L5">
-        <v>1.040203322347763</v>
+        <v>1.051968201256345</v>
       </c>
       <c r="M5">
-        <v>1.047572968761809</v>
+        <v>1.055902037518519</v>
       </c>
       <c r="N5">
-        <v>1.012721663500466</v>
+        <v>1.014899655588891</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007597184571712</v>
+        <v>1.02815539550497</v>
       </c>
       <c r="D6">
-        <v>1.02930539043697</v>
+        <v>1.038606050781004</v>
       </c>
       <c r="E6">
-        <v>1.030836878821421</v>
+        <v>1.049607405809939</v>
       </c>
       <c r="F6">
-        <v>1.038282978362513</v>
+        <v>1.053548712130793</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051873285967325</v>
+        <v>1.036250443500832</v>
       </c>
       <c r="J6">
-        <v>1.026282955494608</v>
+        <v>1.03261069058836</v>
       </c>
       <c r="K6">
-        <v>1.0388101941006</v>
+        <v>1.041023128409518</v>
       </c>
       <c r="L6">
-        <v>1.040325003920738</v>
+        <v>1.051997821761404</v>
       </c>
       <c r="M6">
-        <v>1.047690871101683</v>
+        <v>1.05592972185615</v>
       </c>
       <c r="N6">
-        <v>1.012751832206503</v>
+        <v>1.014906551513089</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006421375297445</v>
+        <v>1.02789876479819</v>
       </c>
       <c r="D7">
-        <v>1.028425400042123</v>
+        <v>1.03840977751223</v>
       </c>
       <c r="E7">
-        <v>1.02973644274945</v>
+        <v>1.04934418254777</v>
       </c>
       <c r="F7">
-        <v>1.037211206340965</v>
+        <v>1.053299044996393</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051563104288971</v>
+        <v>1.036206543136761</v>
       </c>
       <c r="J7">
-        <v>1.025656204724112</v>
+        <v>1.032467478096434</v>
       </c>
       <c r="K7">
-        <v>1.038189555069231</v>
+        <v>1.040886974064363</v>
       </c>
       <c r="L7">
-        <v>1.039485862477706</v>
+        <v>1.051794181682828</v>
       </c>
       <c r="M7">
-        <v>1.046877489152582</v>
+        <v>1.055739356671735</v>
       </c>
       <c r="N7">
-        <v>1.012543649490629</v>
+        <v>1.014859126795053</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001413036784933</v>
+        <v>1.026827009934255</v>
       </c>
       <c r="D8">
-        <v>1.024678516445624</v>
+        <v>1.037589584562851</v>
       </c>
       <c r="E8">
-        <v>1.025065523078087</v>
+        <v>1.048246180571802</v>
       </c>
       <c r="F8">
-        <v>1.032654880255936</v>
+        <v>1.052256762420398</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050213546603201</v>
+        <v>1.036019772333623</v>
       </c>
       <c r="J8">
-        <v>1.022980329103309</v>
+        <v>1.031868460360877</v>
       </c>
       <c r="K8">
-        <v>1.035534263944406</v>
+        <v>1.040316667606224</v>
       </c>
       <c r="L8">
-        <v>1.035916341457753</v>
+        <v>1.050943910441769</v>
       </c>
       <c r="M8">
-        <v>1.043409967395734</v>
+        <v>1.054943611972338</v>
       </c>
       <c r="N8">
-        <v>1.011654750771641</v>
+        <v>1.014660726895675</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9922109748908272</v>
+        <v>1.024942016726123</v>
       </c>
       <c r="D9">
-        <v>1.017802955315878</v>
+        <v>1.036145167771577</v>
       </c>
       <c r="E9">
-        <v>1.016548499501555</v>
+        <v>1.046319891457189</v>
       </c>
       <c r="F9">
-        <v>1.024320084364794</v>
+        <v>1.050425106293291</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047628667822306</v>
+        <v>1.035678375028723</v>
       </c>
       <c r="J9">
-        <v>1.018041814059966</v>
+        <v>1.030811442139854</v>
       </c>
       <c r="K9">
-        <v>1.030613647601687</v>
+        <v>1.039307272066053</v>
       </c>
       <c r="L9">
-        <v>1.029378675570874</v>
+        <v>1.049449167890069</v>
       </c>
       <c r="M9">
-        <v>1.037030534180126</v>
+        <v>1.053541334584062</v>
       </c>
       <c r="N9">
-        <v>1.010014039483703</v>
+        <v>1.014310500902465</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9857990897691116</v>
+        <v>1.023687856997155</v>
       </c>
       <c r="D10">
-        <v>1.013021368250134</v>
+        <v>1.035182918789916</v>
       </c>
       <c r="E10">
-        <v>1.010660421399018</v>
+        <v>1.045041552418459</v>
       </c>
       <c r="F10">
-        <v>1.018540183243577</v>
+        <v>1.049207470487376</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045759482468518</v>
+        <v>1.035442571982564</v>
       </c>
       <c r="J10">
-        <v>1.014587689500125</v>
+        <v>1.030105848885493</v>
       </c>
       <c r="K10">
-        <v>1.02715943166378</v>
+        <v>1.038631439241546</v>
       </c>
       <c r="L10">
-        <v>1.024839829798097</v>
+        <v>1.048455154608879</v>
       </c>
       <c r="M10">
-        <v>1.032582567730071</v>
+        <v>1.052606534644644</v>
       </c>
       <c r="N10">
-        <v>1.008866452231625</v>
+        <v>1.014076626620213</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9829512180881362</v>
+        <v>1.023145406108591</v>
       </c>
       <c r="D11">
-        <v>1.010900552828656</v>
+        <v>1.034766442908009</v>
       </c>
       <c r="E11">
-        <v>1.008056816830331</v>
+        <v>1.044489430848297</v>
       </c>
       <c r="F11">
-        <v>1.01598024273755</v>
+        <v>1.048681068797431</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044913834568809</v>
+        <v>1.035338531821085</v>
       </c>
       <c r="J11">
-        <v>1.013050857393236</v>
+        <v>1.02980011818577</v>
       </c>
       <c r="K11">
-        <v>1.025619787430747</v>
+        <v>1.038338125496905</v>
       </c>
       <c r="L11">
-        <v>1.022828376199294</v>
+        <v>1.048025345373421</v>
       </c>
       <c r="M11">
-        <v>1.030606958885686</v>
+        <v>1.052201789472839</v>
       </c>
       <c r="N11">
-        <v>1.008355873589515</v>
+        <v>1.013975269488763</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9818821320239755</v>
+        <v>1.022944008767193</v>
       </c>
       <c r="D12">
-        <v>1.010104913355329</v>
+        <v>1.034611774806706</v>
       </c>
       <c r="E12">
-        <v>1.00708122677951</v>
+        <v>1.044284561819893</v>
       </c>
       <c r="F12">
-        <v>1.015020391732537</v>
+        <v>1.048485668422412</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044594121588868</v>
+        <v>1.035299596706267</v>
       </c>
       <c r="J12">
-        <v>1.012473570209084</v>
+        <v>1.029686526785992</v>
       </c>
       <c r="K12">
-        <v>1.025041046428278</v>
+        <v>1.038229075917796</v>
       </c>
       <c r="L12">
-        <v>1.022074007600799</v>
+        <v>1.047865787673861</v>
       </c>
       <c r="M12">
-        <v>1.029865373583159</v>
+        <v>1.052051455215401</v>
       </c>
       <c r="N12">
-        <v>1.008164086447903</v>
+        <v>1.013937608159709</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9821119728428114</v>
+        <v>1.022987204942527</v>
       </c>
       <c r="D13">
-        <v>1.010275942199288</v>
+        <v>1.034644950270264</v>
       </c>
       <c r="E13">
-        <v>1.007290884900516</v>
+        <v>1.044328497227942</v>
       </c>
       <c r="F13">
-        <v>1.015226695526477</v>
+        <v>1.048527576611539</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044662957127243</v>
+        <v>1.035307961528077</v>
       </c>
       <c r="J13">
-        <v>1.012597695898926</v>
+        <v>1.029710893837156</v>
       </c>
       <c r="K13">
-        <v>1.025165502364057</v>
+        <v>1.038252471915898</v>
       </c>
       <c r="L13">
-        <v>1.022236154162924</v>
+        <v>1.04790000912528</v>
       </c>
       <c r="M13">
-        <v>1.030024802188848</v>
+        <v>1.052083702119586</v>
       </c>
       <c r="N13">
-        <v>1.008205323453682</v>
+        <v>1.013945687213678</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9828630799151418</v>
+        <v>1.023128756633395</v>
       </c>
       <c r="D14">
-        <v>1.010834947499909</v>
+        <v>1.034753657380024</v>
       </c>
       <c r="E14">
-        <v>1.007976349817837</v>
+        <v>1.044472491943375</v>
       </c>
       <c r="F14">
-        <v>1.015901086521133</v>
+        <v>1.04866491430519</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044887522174053</v>
+        <v>1.035335319342503</v>
       </c>
       <c r="J14">
-        <v>1.01300327153332</v>
+        <v>1.029790729277763</v>
       </c>
       <c r="K14">
-        <v>1.02557208970254</v>
+        <v>1.038329113452276</v>
       </c>
       <c r="L14">
-        <v>1.022766169033383</v>
+        <v>1.048012154385721</v>
       </c>
       <c r="M14">
-        <v>1.030545819250255</v>
+        <v>1.052189362661498</v>
       </c>
       <c r="N14">
-        <v>1.008340064461734</v>
+        <v>1.01397215664963</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.983324353656169</v>
+        <v>1.023215983683936</v>
       </c>
       <c r="D15">
-        <v>1.011178316177187</v>
+        <v>1.034820639395112</v>
       </c>
       <c r="E15">
-        <v>1.008397549982828</v>
+        <v>1.044561240191945</v>
       </c>
       <c r="F15">
-        <v>1.016315400029452</v>
+        <v>1.048749549699733</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04502513715258</v>
+        <v>1.035352136997763</v>
       </c>
       <c r="J15">
-        <v>1.013252298960301</v>
+        <v>1.029839914669029</v>
       </c>
       <c r="K15">
-        <v>1.025821686469316</v>
+        <v>1.038376321650897</v>
       </c>
       <c r="L15">
-        <v>1.023091762064577</v>
+        <v>1.048081263100979</v>
       </c>
       <c r="M15">
-        <v>1.030865797931533</v>
+        <v>1.052254464470679</v>
       </c>
       <c r="N15">
-        <v>1.008422797322685</v>
+        <v>1.013988463662932</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9859865438789808</v>
+        <v>1.023723870637848</v>
       </c>
       <c r="D16">
-        <v>1.013161032879109</v>
+        <v>1.03521056296734</v>
       </c>
       <c r="E16">
-        <v>1.010832043940791</v>
+        <v>1.045078224739137</v>
       </c>
       <c r="F16">
-        <v>1.018708840810021</v>
+        <v>1.049242423962793</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045814828284747</v>
+        <v>1.035449436073584</v>
       </c>
       <c r="J16">
-        <v>1.01468879521383</v>
+        <v>1.030126135031935</v>
       </c>
       <c r="K16">
-        <v>1.027260666202232</v>
+        <v>1.038650891436331</v>
       </c>
       <c r="L16">
-        <v>1.024972326892248</v>
+        <v>1.048483692524173</v>
       </c>
       <c r="M16">
-        <v>1.032712611697536</v>
+        <v>1.052633397013389</v>
       </c>
       <c r="N16">
-        <v>1.008900042812132</v>
+        <v>1.014083351542842</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9876369699618176</v>
+        <v>1.024042618792227</v>
       </c>
       <c r="D17">
-        <v>1.014391044326309</v>
+        <v>1.035455202401518</v>
       </c>
       <c r="E17">
-        <v>1.012344412360337</v>
+        <v>1.045402893786771</v>
       </c>
       <c r="F17">
-        <v>1.020194605458187</v>
+        <v>1.049551818017622</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046300363956562</v>
+        <v>1.035509951542506</v>
       </c>
       <c r="J17">
-        <v>1.015578673791713</v>
+        <v>1.030305619739249</v>
       </c>
       <c r="K17">
-        <v>1.028151365264743</v>
+        <v>1.038822942449257</v>
       </c>
       <c r="L17">
-        <v>1.026139406719966</v>
+        <v>1.04873628905338</v>
       </c>
       <c r="M17">
-        <v>1.033857578740925</v>
+        <v>1.052871100456495</v>
       </c>
       <c r="N17">
-        <v>1.009195690948335</v>
+        <v>1.014142848952486</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9885927752481392</v>
+        <v>1.024228597803963</v>
       </c>
       <c r="D18">
-        <v>1.015103652261998</v>
+        <v>1.035597914097544</v>
       </c>
       <c r="E18">
-        <v>1.013221364999951</v>
+        <v>1.045592403433707</v>
       </c>
       <c r="F18">
-        <v>1.021055734190592</v>
+        <v>1.049732363501317</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046580079061704</v>
+        <v>1.03554506234794</v>
       </c>
       <c r="J18">
-        <v>1.016093770171846</v>
+        <v>1.030410290348593</v>
       </c>
       <c r="K18">
-        <v>1.028666672187597</v>
+        <v>1.038923231799863</v>
       </c>
       <c r="L18">
-        <v>1.026815717364796</v>
+        <v>1.048883682603567</v>
       </c>
       <c r="M18">
-        <v>1.034520653349668</v>
+        <v>1.053009751572745</v>
       </c>
       <c r="N18">
-        <v>1.009366824770077</v>
+        <v>1.014177544261966</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9889175318034497</v>
+        <v>1.024292021731443</v>
       </c>
       <c r="D19">
-        <v>1.015345821811103</v>
+        <v>1.035646578034274</v>
       </c>
       <c r="E19">
-        <v>1.013519514649356</v>
+        <v>1.045657044278888</v>
       </c>
       <c r="F19">
-        <v>1.021348436394989</v>
+        <v>1.049793938550216</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046674867226368</v>
+        <v>1.035557002506541</v>
       </c>
       <c r="J19">
-        <v>1.016268741386374</v>
+        <v>1.030445976927152</v>
       </c>
       <c r="K19">
-        <v>1.028841669517215</v>
+        <v>1.038957416792407</v>
       </c>
       <c r="L19">
-        <v>1.027045579669003</v>
+        <v>1.048933949827287</v>
       </c>
       <c r="M19">
-        <v>1.034745945292881</v>
+        <v>1.053057028429577</v>
       </c>
       <c r="N19">
-        <v>1.009424956739768</v>
+        <v>1.014189373006632</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9874606081175995</v>
+        <v>1.024008414058088</v>
       </c>
       <c r="D20">
-        <v>1.014259578220512</v>
+        <v>1.035428953065817</v>
       </c>
       <c r="E20">
-        <v>1.012182688649652</v>
+        <v>1.045368045821541</v>
       </c>
       <c r="F20">
-        <v>1.020035767786344</v>
+        <v>1.049518614553409</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046248632588448</v>
+        <v>1.035503478125174</v>
       </c>
       <c r="J20">
-        <v>1.015483609083688</v>
+        <v>1.030286364765947</v>
       </c>
       <c r="K20">
-        <v>1.028056240199654</v>
+        <v>1.038804489726618</v>
       </c>
       <c r="L20">
-        <v>1.02601465013841</v>
+        <v>1.048709181797235</v>
       </c>
       <c r="M20">
-        <v>1.033735229644084</v>
+        <v>1.052845596833021</v>
       </c>
       <c r="N20">
-        <v>1.00916410706339</v>
+        <v>1.014136466321847</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9826422127640058</v>
+        <v>1.023087070606098</v>
       </c>
       <c r="D21">
-        <v>1.010670554306236</v>
+        <v>1.034721645013746</v>
       </c>
       <c r="E21">
-        <v>1.007774735143865</v>
+        <v>1.044430083178641</v>
       </c>
       <c r="F21">
-        <v>1.015702746105546</v>
+        <v>1.048624468209615</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044821549260245</v>
+        <v>1.035327271145481</v>
       </c>
       <c r="J21">
-        <v>1.01288401948591</v>
+        <v>1.029767220531908</v>
       </c>
       <c r="K21">
-        <v>1.025452550969918</v>
+        <v>1.038306547173511</v>
       </c>
       <c r="L21">
-        <v>1.022610294798229</v>
+        <v>1.047979127832299</v>
       </c>
       <c r="M21">
-        <v>1.030392609341332</v>
+        <v>1.052158248082766</v>
       </c>
       <c r="N21">
-        <v>1.008300446229759</v>
+        <v>1.013964362409613</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9795472699759393</v>
+        <v>1.022508324704895</v>
       </c>
       <c r="D22">
-        <v>1.008368268911649</v>
+        <v>1.03427710447273</v>
       </c>
       <c r="E22">
-        <v>1.004953925098295</v>
+        <v>1.043841585114533</v>
       </c>
       <c r="F22">
-        <v>1.012926271603455</v>
+        <v>1.048063028260474</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043891793968676</v>
+        <v>1.035214805600365</v>
       </c>
       <c r="J22">
-        <v>1.01121216176564</v>
+        <v>1.029440644443335</v>
       </c>
       <c r="K22">
-        <v>1.023775751794216</v>
+        <v>1.037992894245075</v>
       </c>
       <c r="L22">
-        <v>1.0204278784479</v>
+        <v>1.047520650443492</v>
       </c>
       <c r="M22">
-        <v>1.028245933356514</v>
+        <v>1.051726120897681</v>
       </c>
       <c r="N22">
-        <v>1.007745028606884</v>
+        <v>1.013856080142989</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9811943414799463</v>
+        <v>1.022815077189635</v>
       </c>
       <c r="D23">
-        <v>1.009593195781816</v>
+        <v>1.034512746878462</v>
       </c>
       <c r="E23">
-        <v>1.006454100067206</v>
+        <v>1.044153441214744</v>
       </c>
       <c r="F23">
-        <v>1.014403207603035</v>
+        <v>1.048360586866034</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04438780757982</v>
+        <v>1.035274584402418</v>
       </c>
       <c r="J23">
-        <v>1.012102078192194</v>
+        <v>1.029613784251177</v>
       </c>
       <c r="K23">
-        <v>1.024668509256306</v>
+        <v>1.03815922178765</v>
       </c>
       <c r="L23">
-        <v>1.0215889004615</v>
+        <v>1.047763646565667</v>
       </c>
       <c r="M23">
-        <v>1.029388301731977</v>
+        <v>1.051955195688701</v>
       </c>
       <c r="N23">
-        <v>1.008040670160397</v>
+        <v>1.0139134894588</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9875403196065166</v>
+        <v>1.024023869524225</v>
       </c>
       <c r="D24">
-        <v>1.014318997020454</v>
+        <v>1.03544081395642</v>
       </c>
       <c r="E24">
-        <v>1.012255780633455</v>
+        <v>1.045383791698026</v>
       </c>
       <c r="F24">
-        <v>1.020107556639997</v>
+        <v>1.049533617519123</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046272018540029</v>
+        <v>1.035506403761234</v>
       </c>
       <c r="J24">
-        <v>1.015526576936374</v>
+        <v>1.03029506532084</v>
       </c>
       <c r="K24">
-        <v>1.028099236153948</v>
+        <v>1.038812827918987</v>
       </c>
       <c r="L24">
-        <v>1.026071035927872</v>
+        <v>1.048721430219636</v>
       </c>
       <c r="M24">
-        <v>1.033790528639065</v>
+        <v>1.052857120814481</v>
       </c>
       <c r="N24">
-        <v>1.009178382512326</v>
+        <v>1.014139350384283</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9946369485381301</v>
+        <v>1.025428898778397</v>
       </c>
       <c r="D25">
-        <v>1.019614235960109</v>
+        <v>1.036518469714025</v>
       </c>
       <c r="E25">
-        <v>1.018786032949379</v>
+        <v>1.04681686025155</v>
       </c>
       <c r="F25">
-        <v>1.026512847404194</v>
+        <v>1.050898030821224</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048322111593166</v>
+        <v>1.035768084499712</v>
       </c>
       <c r="J25">
-        <v>1.019346158625243</v>
+        <v>1.031084873383127</v>
       </c>
       <c r="K25">
-        <v>1.031915509612686</v>
+        <v>1.039568742762129</v>
       </c>
       <c r="L25">
-        <v>1.031099555154857</v>
+        <v>1.049835164477034</v>
       </c>
       <c r="M25">
-        <v>1.038713069211197</v>
+        <v>1.053903855185598</v>
       </c>
       <c r="N25">
-        <v>1.010447391088946</v>
+        <v>1.014401113449081</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026551335456299</v>
+        <v>1.000098950025216</v>
       </c>
       <c r="D2">
-        <v>1.037378488097944</v>
+        <v>1.023695880922228</v>
       </c>
       <c r="E2">
-        <v>1.047964084582233</v>
+        <v>1.023844224686241</v>
       </c>
       <c r="F2">
-        <v>1.051988769712932</v>
+        <v>1.031461747309576</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03597085415986</v>
+        <v>1.049852320264242</v>
       </c>
       <c r="J2">
-        <v>1.031714145944161</v>
+        <v>1.022276701916425</v>
       </c>
       <c r="K2">
-        <v>1.040169542702951</v>
+        <v>1.034834677423069</v>
       </c>
       <c r="L2">
-        <v>1.050725252719756</v>
+        <v>1.034981073106374</v>
       </c>
       <c r="M2">
-        <v>1.054738745987476</v>
+        <v>1.04249950306099</v>
       </c>
       <c r="N2">
-        <v>1.01460960757403</v>
+        <v>1.011420997171108</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027367332931989</v>
+        <v>1.003957834955123</v>
       </c>
       <c r="D3">
-        <v>1.03800318373375</v>
+        <v>1.026582032688217</v>
       </c>
       <c r="E3">
-        <v>1.048799478953313</v>
+        <v>1.027435612540297</v>
       </c>
       <c r="F3">
-        <v>1.052782148601883</v>
+        <v>1.034968219731154</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03611461768672</v>
+        <v>1.050904831705755</v>
       </c>
       <c r="J3">
-        <v>1.032170638673613</v>
+        <v>1.024341183828647</v>
       </c>
       <c r="K3">
-        <v>1.04060452395568</v>
+        <v>1.036885724026313</v>
       </c>
       <c r="L3">
-        <v>1.051372536393778</v>
+        <v>1.037729083429835</v>
       </c>
       <c r="M3">
-        <v>1.055344930777183</v>
+        <v>1.045172402707223</v>
       </c>
       <c r="N3">
-        <v>1.014760818067133</v>
+        <v>1.012106826407422</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027895795192256</v>
+        <v>1.00640771683095</v>
       </c>
       <c r="D4">
-        <v>1.038407506053869</v>
+        <v>1.028415178496887</v>
       </c>
       <c r="E4">
-        <v>1.049341137359727</v>
+        <v>1.029723668606998</v>
       </c>
       <c r="F4">
-        <v>1.053296156182433</v>
+        <v>1.037198761080533</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036206033259433</v>
+        <v>1.051559485630766</v>
       </c>
       <c r="J4">
-        <v>1.032465820402144</v>
+        <v>1.025648920775589</v>
       </c>
       <c r="K4">
-        <v>1.04088539762326</v>
+        <v>1.038182339119418</v>
       </c>
       <c r="L4">
-        <v>1.051791825357059</v>
+        <v>1.039476117308892</v>
       </c>
       <c r="M4">
-        <v>1.055737153455715</v>
+        <v>1.046868039005439</v>
       </c>
       <c r="N4">
-        <v>1.014858577831136</v>
+        <v>1.012541229995493</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028118068554504</v>
+        <v>1.007426720436068</v>
       </c>
       <c r="D5">
-        <v>1.038577505802278</v>
+        <v>1.029177806652676</v>
       </c>
       <c r="E5">
-        <v>1.049569112481967</v>
+        <v>1.030677249035525</v>
       </c>
       <c r="F5">
-        <v>1.053512395768915</v>
+        <v>1.038127547622771</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036244078248415</v>
+        <v>1.051828482225762</v>
       </c>
       <c r="J5">
-        <v>1.032589865743561</v>
+        <v>1.026192128712943</v>
       </c>
       <c r="K5">
-        <v>1.041003334648157</v>
+        <v>1.038720285298468</v>
       </c>
       <c r="L5">
-        <v>1.051968201256345</v>
+        <v>1.040203322347763</v>
       </c>
       <c r="M5">
-        <v>1.055902037518519</v>
+        <v>1.047572968761809</v>
       </c>
       <c r="N5">
-        <v>1.014899655588891</v>
+        <v>1.012721663500466</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02815539550497</v>
+        <v>1.007597184571712</v>
       </c>
       <c r="D6">
-        <v>1.038606050781004</v>
+        <v>1.029305390436969</v>
       </c>
       <c r="E6">
-        <v>1.049607405809939</v>
+        <v>1.03083687882142</v>
       </c>
       <c r="F6">
-        <v>1.053548712130793</v>
+        <v>1.038282978362512</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036250443500832</v>
+        <v>1.051873285967324</v>
       </c>
       <c r="J6">
-        <v>1.03261069058836</v>
+        <v>1.026282955494607</v>
       </c>
       <c r="K6">
-        <v>1.041023128409518</v>
+        <v>1.0388101941006</v>
       </c>
       <c r="L6">
-        <v>1.051997821761404</v>
+        <v>1.040325003920738</v>
       </c>
       <c r="M6">
-        <v>1.05592972185615</v>
+        <v>1.047690871101682</v>
       </c>
       <c r="N6">
-        <v>1.014906551513089</v>
+        <v>1.012751832206502</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02789876479819</v>
+        <v>1.006421375297446</v>
       </c>
       <c r="D7">
-        <v>1.03840977751223</v>
+        <v>1.028425400042124</v>
       </c>
       <c r="E7">
-        <v>1.04934418254777</v>
+        <v>1.029736442749451</v>
       </c>
       <c r="F7">
-        <v>1.053299044996393</v>
+        <v>1.037211206340966</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036206543136761</v>
+        <v>1.051563104288972</v>
       </c>
       <c r="J7">
-        <v>1.032467478096434</v>
+        <v>1.025656204724114</v>
       </c>
       <c r="K7">
-        <v>1.040886974064363</v>
+        <v>1.038189555069232</v>
       </c>
       <c r="L7">
-        <v>1.051794181682828</v>
+        <v>1.039485862477707</v>
       </c>
       <c r="M7">
-        <v>1.055739356671735</v>
+        <v>1.046877489152583</v>
       </c>
       <c r="N7">
-        <v>1.014859126795053</v>
+        <v>1.012543649490629</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026827009934255</v>
+        <v>1.001413036784933</v>
       </c>
       <c r="D8">
-        <v>1.037589584562851</v>
+        <v>1.024678516445624</v>
       </c>
       <c r="E8">
-        <v>1.048246180571802</v>
+        <v>1.025065523078086</v>
       </c>
       <c r="F8">
-        <v>1.052256762420398</v>
+        <v>1.032654880255935</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036019772333623</v>
+        <v>1.050213546603201</v>
       </c>
       <c r="J8">
-        <v>1.031868460360877</v>
+        <v>1.022980329103309</v>
       </c>
       <c r="K8">
-        <v>1.040316667606224</v>
+        <v>1.035534263944405</v>
       </c>
       <c r="L8">
-        <v>1.050943910441769</v>
+        <v>1.035916341457752</v>
       </c>
       <c r="M8">
-        <v>1.054943611972338</v>
+        <v>1.043409967395733</v>
       </c>
       <c r="N8">
-        <v>1.014660726895675</v>
+        <v>1.011654750771641</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024942016726123</v>
+        <v>0.9922109748908279</v>
       </c>
       <c r="D9">
-        <v>1.036145167771577</v>
+        <v>1.017802955315878</v>
       </c>
       <c r="E9">
-        <v>1.046319891457189</v>
+        <v>1.016548499501555</v>
       </c>
       <c r="F9">
-        <v>1.050425106293291</v>
+        <v>1.024320084364795</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035678375028723</v>
+        <v>1.047628667822307</v>
       </c>
       <c r="J9">
-        <v>1.030811442139854</v>
+        <v>1.018041814059967</v>
       </c>
       <c r="K9">
-        <v>1.039307272066053</v>
+        <v>1.030613647601688</v>
       </c>
       <c r="L9">
-        <v>1.049449167890069</v>
+        <v>1.029378675570874</v>
       </c>
       <c r="M9">
-        <v>1.053541334584062</v>
+        <v>1.037030534180126</v>
       </c>
       <c r="N9">
-        <v>1.014310500902465</v>
+        <v>1.010014039483703</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023687856997155</v>
+        <v>0.9857990897691111</v>
       </c>
       <c r="D10">
-        <v>1.035182918789916</v>
+        <v>1.013021368250134</v>
       </c>
       <c r="E10">
-        <v>1.045041552418459</v>
+        <v>1.010660421399018</v>
       </c>
       <c r="F10">
-        <v>1.049207470487376</v>
+        <v>1.018540183243576</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035442571982564</v>
+        <v>1.045759482468518</v>
       </c>
       <c r="J10">
-        <v>1.030105848885493</v>
+        <v>1.014587689500124</v>
       </c>
       <c r="K10">
-        <v>1.038631439241546</v>
+        <v>1.02715943166378</v>
       </c>
       <c r="L10">
-        <v>1.048455154608879</v>
+        <v>1.024839829798097</v>
       </c>
       <c r="M10">
-        <v>1.052606534644644</v>
+        <v>1.032582567730071</v>
       </c>
       <c r="N10">
-        <v>1.014076626620213</v>
+        <v>1.008866452231624</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023145406108591</v>
+        <v>0.9829512180881366</v>
       </c>
       <c r="D11">
-        <v>1.034766442908009</v>
+        <v>1.010900552828657</v>
       </c>
       <c r="E11">
-        <v>1.044489430848297</v>
+        <v>1.008056816830331</v>
       </c>
       <c r="F11">
-        <v>1.048681068797431</v>
+        <v>1.01598024273755</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035338531821085</v>
+        <v>1.044913834568809</v>
       </c>
       <c r="J11">
-        <v>1.02980011818577</v>
+        <v>1.013050857393237</v>
       </c>
       <c r="K11">
-        <v>1.038338125496905</v>
+        <v>1.025619787430748</v>
       </c>
       <c r="L11">
-        <v>1.048025345373421</v>
+        <v>1.022828376199295</v>
       </c>
       <c r="M11">
-        <v>1.052201789472839</v>
+        <v>1.030606958885686</v>
       </c>
       <c r="N11">
-        <v>1.013975269488763</v>
+        <v>1.008355873589515</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022944008767193</v>
+        <v>0.9818821320239749</v>
       </c>
       <c r="D12">
-        <v>1.034611774806706</v>
+        <v>1.010104913355328</v>
       </c>
       <c r="E12">
-        <v>1.044284561819893</v>
+        <v>1.007081226779509</v>
       </c>
       <c r="F12">
-        <v>1.048485668422412</v>
+        <v>1.015020391732536</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035299596706267</v>
+        <v>1.044594121588868</v>
       </c>
       <c r="J12">
-        <v>1.029686526785992</v>
+        <v>1.012473570209083</v>
       </c>
       <c r="K12">
-        <v>1.038229075917796</v>
+        <v>1.025041046428277</v>
       </c>
       <c r="L12">
-        <v>1.047865787673861</v>
+        <v>1.022074007600799</v>
       </c>
       <c r="M12">
-        <v>1.052051455215401</v>
+        <v>1.029865373583158</v>
       </c>
       <c r="N12">
-        <v>1.013937608159709</v>
+        <v>1.008164086447903</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022987204942527</v>
+        <v>0.9821119728428118</v>
       </c>
       <c r="D13">
-        <v>1.034644950270264</v>
+        <v>1.010275942199289</v>
       </c>
       <c r="E13">
-        <v>1.044328497227942</v>
+        <v>1.007290884900516</v>
       </c>
       <c r="F13">
-        <v>1.048527576611539</v>
+        <v>1.015226695526477</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035307961528077</v>
+        <v>1.044662957127243</v>
       </c>
       <c r="J13">
-        <v>1.029710893837156</v>
+        <v>1.012597695898927</v>
       </c>
       <c r="K13">
-        <v>1.038252471915898</v>
+        <v>1.025165502364057</v>
       </c>
       <c r="L13">
-        <v>1.04790000912528</v>
+        <v>1.022236154162924</v>
       </c>
       <c r="M13">
-        <v>1.052083702119586</v>
+        <v>1.030024802188848</v>
       </c>
       <c r="N13">
-        <v>1.013945687213678</v>
+        <v>1.008205323453682</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023128756633395</v>
+        <v>0.9828630799151413</v>
       </c>
       <c r="D14">
-        <v>1.034753657380024</v>
+        <v>1.010834947499909</v>
       </c>
       <c r="E14">
-        <v>1.044472491943375</v>
+        <v>1.007976349817836</v>
       </c>
       <c r="F14">
-        <v>1.04866491430519</v>
+        <v>1.015901086521132</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035335319342503</v>
+        <v>1.044887522174052</v>
       </c>
       <c r="J14">
-        <v>1.029790729277763</v>
+        <v>1.013003271533319</v>
       </c>
       <c r="K14">
-        <v>1.038329113452276</v>
+        <v>1.02557208970254</v>
       </c>
       <c r="L14">
-        <v>1.048012154385721</v>
+        <v>1.022766169033382</v>
       </c>
       <c r="M14">
-        <v>1.052189362661498</v>
+        <v>1.030545819250254</v>
       </c>
       <c r="N14">
-        <v>1.01397215664963</v>
+        <v>1.008340064461733</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023215983683936</v>
+        <v>0.9833243536561688</v>
       </c>
       <c r="D15">
-        <v>1.034820639395112</v>
+        <v>1.011178316177187</v>
       </c>
       <c r="E15">
-        <v>1.044561240191945</v>
+        <v>1.008397549982829</v>
       </c>
       <c r="F15">
-        <v>1.048749549699733</v>
+        <v>1.016315400029452</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035352136997763</v>
+        <v>1.04502513715258</v>
       </c>
       <c r="J15">
-        <v>1.029839914669029</v>
+        <v>1.013252298960301</v>
       </c>
       <c r="K15">
-        <v>1.038376321650897</v>
+        <v>1.025821686469316</v>
       </c>
       <c r="L15">
-        <v>1.048081263100979</v>
+        <v>1.023091762064578</v>
       </c>
       <c r="M15">
-        <v>1.052254464470679</v>
+        <v>1.030865797931533</v>
       </c>
       <c r="N15">
-        <v>1.013988463662932</v>
+        <v>1.008422797322685</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023723870637848</v>
+        <v>0.9859865438789809</v>
       </c>
       <c r="D16">
-        <v>1.03521056296734</v>
+        <v>1.013161032879108</v>
       </c>
       <c r="E16">
-        <v>1.045078224739137</v>
+        <v>1.01083204394079</v>
       </c>
       <c r="F16">
-        <v>1.049242423962793</v>
+        <v>1.018708840810021</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035449436073584</v>
+        <v>1.045814828284747</v>
       </c>
       <c r="J16">
-        <v>1.030126135031935</v>
+        <v>1.01468879521383</v>
       </c>
       <c r="K16">
-        <v>1.038650891436331</v>
+        <v>1.027260666202232</v>
       </c>
       <c r="L16">
-        <v>1.048483692524173</v>
+        <v>1.024972326892248</v>
       </c>
       <c r="M16">
-        <v>1.052633397013389</v>
+        <v>1.032712611697536</v>
       </c>
       <c r="N16">
-        <v>1.014083351542842</v>
+        <v>1.008900042812132</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024042618792227</v>
+        <v>0.9876369699618179</v>
       </c>
       <c r="D17">
-        <v>1.035455202401518</v>
+        <v>1.014391044326309</v>
       </c>
       <c r="E17">
-        <v>1.045402893786771</v>
+        <v>1.012344412360337</v>
       </c>
       <c r="F17">
-        <v>1.049551818017622</v>
+        <v>1.020194605458187</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035509951542506</v>
+        <v>1.046300363956562</v>
       </c>
       <c r="J17">
-        <v>1.030305619739249</v>
+        <v>1.015578673791714</v>
       </c>
       <c r="K17">
-        <v>1.038822942449257</v>
+        <v>1.028151365264743</v>
       </c>
       <c r="L17">
-        <v>1.04873628905338</v>
+        <v>1.026139406719966</v>
       </c>
       <c r="M17">
-        <v>1.052871100456495</v>
+        <v>1.033857578740925</v>
       </c>
       <c r="N17">
-        <v>1.014142848952486</v>
+        <v>1.009195690948335</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024228597803963</v>
+        <v>0.9885927752481389</v>
       </c>
       <c r="D18">
-        <v>1.035597914097544</v>
+        <v>1.015103652261998</v>
       </c>
       <c r="E18">
-        <v>1.045592403433707</v>
+        <v>1.013221364999951</v>
       </c>
       <c r="F18">
-        <v>1.049732363501317</v>
+        <v>1.021055734190592</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03554506234794</v>
+        <v>1.046580079061704</v>
       </c>
       <c r="J18">
-        <v>1.030410290348593</v>
+        <v>1.016093770171847</v>
       </c>
       <c r="K18">
-        <v>1.038923231799863</v>
+        <v>1.028666672187597</v>
       </c>
       <c r="L18">
-        <v>1.048883682603567</v>
+        <v>1.026815717364796</v>
       </c>
       <c r="M18">
-        <v>1.053009751572745</v>
+        <v>1.034520653349668</v>
       </c>
       <c r="N18">
-        <v>1.014177544261966</v>
+        <v>1.009366824770077</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024292021731443</v>
+        <v>0.9889175318034493</v>
       </c>
       <c r="D19">
-        <v>1.035646578034274</v>
+        <v>1.015345821811103</v>
       </c>
       <c r="E19">
-        <v>1.045657044278888</v>
+        <v>1.013519514649355</v>
       </c>
       <c r="F19">
-        <v>1.049793938550216</v>
+        <v>1.021348436394989</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035557002506541</v>
+        <v>1.046674867226367</v>
       </c>
       <c r="J19">
-        <v>1.030445976927152</v>
+        <v>1.016268741386374</v>
       </c>
       <c r="K19">
-        <v>1.038957416792407</v>
+        <v>1.028841669517215</v>
       </c>
       <c r="L19">
-        <v>1.048933949827287</v>
+        <v>1.027045579669003</v>
       </c>
       <c r="M19">
-        <v>1.053057028429577</v>
+        <v>1.03474594529288</v>
       </c>
       <c r="N19">
-        <v>1.014189373006632</v>
+        <v>1.009424956739768</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024008414058088</v>
+        <v>0.9874606081175992</v>
       </c>
       <c r="D20">
-        <v>1.035428953065817</v>
+        <v>1.014259578220512</v>
       </c>
       <c r="E20">
-        <v>1.045368045821541</v>
+        <v>1.012182688649652</v>
       </c>
       <c r="F20">
-        <v>1.049518614553409</v>
+        <v>1.020035767786344</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035503478125174</v>
+        <v>1.046248632588448</v>
       </c>
       <c r="J20">
-        <v>1.030286364765947</v>
+        <v>1.015483609083687</v>
       </c>
       <c r="K20">
-        <v>1.038804489726618</v>
+        <v>1.028056240199653</v>
       </c>
       <c r="L20">
-        <v>1.048709181797235</v>
+        <v>1.02601465013841</v>
       </c>
       <c r="M20">
-        <v>1.052845596833021</v>
+        <v>1.033735229644084</v>
       </c>
       <c r="N20">
-        <v>1.014136466321847</v>
+        <v>1.00916410706339</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023087070606098</v>
+        <v>0.982642212764006</v>
       </c>
       <c r="D21">
-        <v>1.034721645013746</v>
+        <v>1.010670554306236</v>
       </c>
       <c r="E21">
-        <v>1.044430083178641</v>
+        <v>1.007774735143865</v>
       </c>
       <c r="F21">
-        <v>1.048624468209615</v>
+        <v>1.015702746105546</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035327271145481</v>
+        <v>1.044821549260245</v>
       </c>
       <c r="J21">
-        <v>1.029767220531908</v>
+        <v>1.01288401948591</v>
       </c>
       <c r="K21">
-        <v>1.038306547173511</v>
+        <v>1.025452550969918</v>
       </c>
       <c r="L21">
-        <v>1.047979127832299</v>
+        <v>1.022610294798229</v>
       </c>
       <c r="M21">
-        <v>1.052158248082766</v>
+        <v>1.030392609341332</v>
       </c>
       <c r="N21">
-        <v>1.013964362409613</v>
+        <v>1.008300446229759</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022508324704895</v>
+        <v>0.9795472699759394</v>
       </c>
       <c r="D22">
-        <v>1.03427710447273</v>
+        <v>1.008368268911649</v>
       </c>
       <c r="E22">
-        <v>1.043841585114533</v>
+        <v>1.004953925098294</v>
       </c>
       <c r="F22">
-        <v>1.048063028260474</v>
+        <v>1.012926271603454</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035214805600365</v>
+        <v>1.043891793968676</v>
       </c>
       <c r="J22">
-        <v>1.029440644443335</v>
+        <v>1.01121216176564</v>
       </c>
       <c r="K22">
-        <v>1.037992894245075</v>
+        <v>1.023775751794216</v>
       </c>
       <c r="L22">
-        <v>1.047520650443492</v>
+        <v>1.0204278784479</v>
       </c>
       <c r="M22">
-        <v>1.051726120897681</v>
+        <v>1.028245933356513</v>
       </c>
       <c r="N22">
-        <v>1.013856080142989</v>
+        <v>1.007745028606884</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022815077189635</v>
+        <v>0.981194341479945</v>
       </c>
       <c r="D23">
-        <v>1.034512746878462</v>
+        <v>1.009593195781814</v>
       </c>
       <c r="E23">
-        <v>1.044153441214744</v>
+        <v>1.006454100067205</v>
       </c>
       <c r="F23">
-        <v>1.048360586866034</v>
+        <v>1.014403207603034</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035274584402418</v>
+        <v>1.044387807579819</v>
       </c>
       <c r="J23">
-        <v>1.029613784251177</v>
+        <v>1.012102078192193</v>
       </c>
       <c r="K23">
-        <v>1.03815922178765</v>
+        <v>1.024668509256305</v>
       </c>
       <c r="L23">
-        <v>1.047763646565667</v>
+        <v>1.021588900461499</v>
       </c>
       <c r="M23">
-        <v>1.051955195688701</v>
+        <v>1.029388301731976</v>
       </c>
       <c r="N23">
-        <v>1.0139134894588</v>
+        <v>1.008040670160397</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024023869524225</v>
+        <v>0.9875403196065162</v>
       </c>
       <c r="D24">
-        <v>1.03544081395642</v>
+        <v>1.014318997020454</v>
       </c>
       <c r="E24">
-        <v>1.045383791698026</v>
+        <v>1.012255780633455</v>
       </c>
       <c r="F24">
-        <v>1.049533617519123</v>
+        <v>1.020107556639997</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035506403761234</v>
+        <v>1.046272018540029</v>
       </c>
       <c r="J24">
-        <v>1.03029506532084</v>
+        <v>1.015526576936374</v>
       </c>
       <c r="K24">
-        <v>1.038812827918987</v>
+        <v>1.028099236153948</v>
       </c>
       <c r="L24">
-        <v>1.048721430219636</v>
+        <v>1.026071035927872</v>
       </c>
       <c r="M24">
-        <v>1.052857120814481</v>
+        <v>1.033790528639065</v>
       </c>
       <c r="N24">
-        <v>1.014139350384283</v>
+        <v>1.009178382512326</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025428898778397</v>
+        <v>0.9946369485381298</v>
       </c>
       <c r="D25">
-        <v>1.036518469714025</v>
+        <v>1.019614235960108</v>
       </c>
       <c r="E25">
-        <v>1.04681686025155</v>
+        <v>1.018786032949379</v>
       </c>
       <c r="F25">
-        <v>1.050898030821224</v>
+        <v>1.026512847404194</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035768084499712</v>
+        <v>1.048322111593166</v>
       </c>
       <c r="J25">
-        <v>1.031084873383127</v>
+        <v>1.019346158625243</v>
       </c>
       <c r="K25">
-        <v>1.039568742762129</v>
+        <v>1.031915509612686</v>
       </c>
       <c r="L25">
-        <v>1.049835164477034</v>
+        <v>1.031099555154857</v>
       </c>
       <c r="M25">
-        <v>1.053903855185598</v>
+        <v>1.038713069211197</v>
       </c>
       <c r="N25">
-        <v>1.014401113449081</v>
+        <v>1.010447391088946</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000098950025216</v>
+        <v>0.997307122528924</v>
       </c>
       <c r="D2">
-        <v>1.023695880922228</v>
+        <v>1.018194807359675</v>
       </c>
       <c r="E2">
-        <v>1.023844224686241</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.031461747309576</v>
+        <v>1.023941669923454</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049852320264242</v>
+        <v>1.043057123137491</v>
       </c>
       <c r="J2">
-        <v>1.022276701916425</v>
+        <v>1.019568676507809</v>
       </c>
       <c r="K2">
-        <v>1.034834677423069</v>
+        <v>1.029406348235047</v>
       </c>
       <c r="L2">
-        <v>1.034981073106374</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.04249950306099</v>
+        <v>1.035077239057832</v>
       </c>
       <c r="N2">
-        <v>1.011420997171108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010168457272093</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.036333660073475</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03186300132339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003957834955123</v>
+        <v>1.001605170327738</v>
       </c>
       <c r="D3">
-        <v>1.026582032688217</v>
+        <v>1.020955616756115</v>
       </c>
       <c r="E3">
-        <v>1.027435612540297</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.034968219731154</v>
+        <v>1.026870403829188</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050904831705755</v>
+        <v>1.043836507643896</v>
       </c>
       <c r="J3">
-        <v>1.024341183828647</v>
+        <v>1.02205217222392</v>
       </c>
       <c r="K3">
-        <v>1.036885724026313</v>
+        <v>1.031327207885424</v>
       </c>
       <c r="L3">
-        <v>1.037729083429835</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.045172402707223</v>
+        <v>1.037170639960744</v>
       </c>
       <c r="N3">
-        <v>1.012106826407422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011033195336468</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.037990454249976</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.033218553513094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00640771683095</v>
+        <v>1.004331100763971</v>
       </c>
       <c r="D4">
-        <v>1.028415178496887</v>
+        <v>1.022710049718427</v>
       </c>
       <c r="E4">
-        <v>1.029723668606998</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.037198761080533</v>
+        <v>1.028736075390149</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051559485630766</v>
+        <v>1.044320733990369</v>
       </c>
       <c r="J4">
-        <v>1.025648920775589</v>
+        <v>1.023624661683596</v>
       </c>
       <c r="K4">
-        <v>1.038182339119418</v>
+        <v>1.032541898201701</v>
       </c>
       <c r="L4">
-        <v>1.039476117308892</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.046868039005439</v>
+        <v>1.038499623763676</v>
       </c>
       <c r="N4">
-        <v>1.012541229995493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011580440606567</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039042258729525</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034078362513382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007426720436068</v>
+        <v>1.005469324923462</v>
       </c>
       <c r="D5">
-        <v>1.029177806652676</v>
+        <v>1.023445805162781</v>
       </c>
       <c r="E5">
-        <v>1.030677249035525</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.038127547622771</v>
+        <v>1.029515906961922</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051828482225762</v>
+        <v>1.044522259383521</v>
       </c>
       <c r="J5">
-        <v>1.026192128712943</v>
+        <v>1.024282600245176</v>
       </c>
       <c r="K5">
-        <v>1.038720285298468</v>
+        <v>1.033051542327406</v>
       </c>
       <c r="L5">
-        <v>1.040203322347763</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.047572968761809</v>
+        <v>1.039054681342784</v>
       </c>
       <c r="N5">
-        <v>1.012721663500466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011810009156199</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.039481550344138</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034445954568671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007597184571712</v>
+        <v>1.005665802616643</v>
       </c>
       <c r="D6">
-        <v>1.029305390436969</v>
+        <v>1.023575774127266</v>
       </c>
       <c r="E6">
-        <v>1.03083687882142</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.038282978362512</v>
+        <v>1.029649301212535</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051873285967324</v>
+        <v>1.044559092129196</v>
       </c>
       <c r="J6">
-        <v>1.026282955494607</v>
+        <v>1.024398560053243</v>
       </c>
       <c r="K6">
-        <v>1.0388101941006</v>
+        <v>1.033143519838293</v>
       </c>
       <c r="L6">
-        <v>1.040325003920738</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.047690871101682</v>
+        <v>1.039150354238541</v>
       </c>
       <c r="N6">
-        <v>1.012751832206502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011851282066698</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.039557269129642</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.034519801140538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006421375297446</v>
+        <v>1.004362817345707</v>
       </c>
       <c r="D7">
-        <v>1.028425400042124</v>
+        <v>1.022738382227003</v>
       </c>
       <c r="E7">
-        <v>1.029736442749451</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.037211206340966</v>
+        <v>1.028754223544691</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051563104288972</v>
+        <v>1.044332265293537</v>
       </c>
       <c r="J7">
-        <v>1.025656204724114</v>
+        <v>1.023649526317127</v>
       </c>
       <c r="K7">
-        <v>1.038189555069232</v>
+        <v>1.032566995244456</v>
       </c>
       <c r="L7">
-        <v>1.039485862477707</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.046877489152583</v>
+        <v>1.038514678455478</v>
       </c>
       <c r="N7">
-        <v>1.012543649490629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011591348272293</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.03905417353276</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034116374491325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001413036784933</v>
+        <v>0.9987921612235994</v>
       </c>
       <c r="D8">
-        <v>1.024678516445624</v>
+        <v>1.019157745545242</v>
       </c>
       <c r="E8">
-        <v>1.025065523078086</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.032654880255935</v>
+        <v>1.024947422279282</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050213546603201</v>
+        <v>1.043335850104676</v>
       </c>
       <c r="J8">
-        <v>1.022980329103309</v>
+        <v>1.020435458424648</v>
       </c>
       <c r="K8">
-        <v>1.035534263944405</v>
+        <v>1.030084318350793</v>
       </c>
       <c r="L8">
-        <v>1.035916341457752</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.043409967395733</v>
+        <v>1.035799744359624</v>
       </c>
       <c r="N8">
-        <v>1.011654750771641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010473281080962</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.03690547767759</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.032365498162554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9922109748908279</v>
+        <v>0.9885052368703242</v>
       </c>
       <c r="D9">
-        <v>1.017802955315878</v>
+        <v>1.012563191905631</v>
       </c>
       <c r="E9">
-        <v>1.016548499501555</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.024320084364795</v>
+        <v>1.017991904396253</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047628667822307</v>
+        <v>1.04140805754129</v>
       </c>
       <c r="J9">
-        <v>1.018041814059967</v>
+        <v>1.014470538376056</v>
       </c>
       <c r="K9">
-        <v>1.030613647601688</v>
+        <v>1.025455676239071</v>
       </c>
       <c r="L9">
-        <v>1.029378675570874</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.037030534180126</v>
+        <v>1.030799667304601</v>
       </c>
       <c r="N9">
-        <v>1.010014039483703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008392374970998</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.032948221010001</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029089468497312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9857990897691111</v>
+        <v>0.9814252688989176</v>
       </c>
       <c r="D10">
-        <v>1.013021368250134</v>
+        <v>1.008064619825333</v>
       </c>
       <c r="E10">
-        <v>1.010660421399018</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.018540183243576</v>
+        <v>1.013424343819547</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045759482468518</v>
+        <v>1.040066796979448</v>
       </c>
       <c r="J10">
-        <v>1.014587689500124</v>
+        <v>1.01039573616137</v>
       </c>
       <c r="K10">
-        <v>1.02715943166378</v>
+        <v>1.022289775891661</v>
       </c>
       <c r="L10">
-        <v>1.024839829798097</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.032582567730071</v>
+        <v>1.027555375233342</v>
       </c>
       <c r="N10">
-        <v>1.008866452231624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00698164319597</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.030432494891365</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.026867923351013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9829512180881366</v>
+        <v>0.9791126359495944</v>
       </c>
       <c r="D11">
-        <v>1.010900552828657</v>
+        <v>1.006719647674232</v>
       </c>
       <c r="E11">
-        <v>1.008056816830331</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.01598024273755</v>
+        <v>1.013293327177071</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044913834568809</v>
+        <v>1.039889183226269</v>
       </c>
       <c r="J11">
-        <v>1.013050857393237</v>
+        <v>1.009380930950233</v>
       </c>
       <c r="K11">
-        <v>1.025619787430748</v>
+        <v>1.021515944207239</v>
       </c>
       <c r="L11">
-        <v>1.022828376199295</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.030606958885686</v>
+        <v>1.027968830814062</v>
       </c>
       <c r="N11">
-        <v>1.008355873589515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.0067269396725</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031199605019281</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026354005852545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9818821320239749</v>
+        <v>0.9785180691852099</v>
       </c>
       <c r="D12">
-        <v>1.010104913355328</v>
+        <v>1.006425127615321</v>
       </c>
       <c r="E12">
-        <v>1.007081226779509</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.015020391732536</v>
+        <v>1.013883865674067</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044594121588868</v>
+        <v>1.03996233168562</v>
       </c>
       <c r="J12">
-        <v>1.012473570209083</v>
+        <v>1.009260253458666</v>
       </c>
       <c r="K12">
-        <v>1.025041046428277</v>
+        <v>1.021430258947852</v>
       </c>
       <c r="L12">
-        <v>1.022074007600799</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.029865373583158</v>
+        <v>1.028749820541805</v>
       </c>
       <c r="N12">
-        <v>1.008164086447903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006761250296379</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032146009821545</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026293422269832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9821119728428118</v>
+        <v>0.9792280317794203</v>
       </c>
       <c r="D13">
-        <v>1.010275942199289</v>
+        <v>1.006941426879018</v>
       </c>
       <c r="E13">
-        <v>1.007290884900516</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.015226695526477</v>
+        <v>1.015098439284979</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044662957127243</v>
+        <v>1.040248993469378</v>
       </c>
       <c r="J13">
-        <v>1.012597695898927</v>
+        <v>1.009842334232563</v>
       </c>
       <c r="K13">
-        <v>1.025165502364057</v>
+        <v>1.02189324615651</v>
       </c>
       <c r="L13">
-        <v>1.022236154162924</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.030024802188848</v>
+        <v>1.029898900517873</v>
       </c>
       <c r="N13">
-        <v>1.008205323453682</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007030965222974</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03333278200458</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026618255194106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9828630799151413</v>
+        <v>0.980309458158611</v>
       </c>
       <c r="D14">
-        <v>1.010834947499909</v>
+        <v>1.007666782860457</v>
       </c>
       <c r="E14">
-        <v>1.007976349817836</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.015901086521132</v>
+        <v>1.016216677530674</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044887522174052</v>
+        <v>1.040542926124185</v>
       </c>
       <c r="J14">
-        <v>1.013003271533319</v>
+        <v>1.010561827552752</v>
       </c>
       <c r="K14">
-        <v>1.02557208970254</v>
+        <v>1.022462330027486</v>
       </c>
       <c r="L14">
-        <v>1.022766169033382</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.030545819250254</v>
+        <v>1.030855693333792</v>
       </c>
       <c r="N14">
-        <v>1.008340064461733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007324210910638</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034263197975695</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027022065604204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9833243536561688</v>
+        <v>0.9808702789007063</v>
       </c>
       <c r="D15">
-        <v>1.011178316177187</v>
+        <v>1.00803246984901</v>
       </c>
       <c r="E15">
-        <v>1.008397549982829</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.016315400029452</v>
+        <v>1.016660258092316</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04502513715258</v>
+        <v>1.04066920318095</v>
       </c>
       <c r="J15">
-        <v>1.013252298960301</v>
+        <v>1.010905060423597</v>
       </c>
       <c r="K15">
-        <v>1.025821686469316</v>
+        <v>1.022733383962612</v>
       </c>
       <c r="L15">
-        <v>1.023091762064578</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.030865797931533</v>
+        <v>1.031204458383214</v>
       </c>
       <c r="N15">
-        <v>1.008422797322685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007452944001649</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.034576541104168</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027219649569238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9859865438789809</v>
+        <v>0.9837306094908574</v>
       </c>
       <c r="D16">
-        <v>1.013161032879108</v>
+        <v>1.009836565445054</v>
       </c>
       <c r="E16">
-        <v>1.01083204394079</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.018708840810021</v>
+        <v>1.01840761234806</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045814828284747</v>
+        <v>1.041196504173883</v>
       </c>
       <c r="J16">
-        <v>1.01468879521383</v>
+        <v>1.012526026224034</v>
       </c>
       <c r="K16">
-        <v>1.027260666202232</v>
+        <v>1.023994297367315</v>
       </c>
       <c r="L16">
-        <v>1.024972326892248</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.032712611697536</v>
+        <v>1.032416553601959</v>
       </c>
       <c r="N16">
-        <v>1.008900042812132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008000810293809</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.03549571002437</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028114376882023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9876369699618179</v>
+        <v>0.9853646343543351</v>
       </c>
       <c r="D17">
-        <v>1.014391044326309</v>
+        <v>1.010846302179728</v>
       </c>
       <c r="E17">
-        <v>1.012344412360337</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.020194605458187</v>
+        <v>1.019161566611649</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046300363956562</v>
+        <v>1.041447074910368</v>
       </c>
       <c r="J17">
-        <v>1.015578673791714</v>
+        <v>1.013397082820711</v>
       </c>
       <c r="K17">
-        <v>1.028151365264743</v>
+        <v>1.024666792020704</v>
       </c>
       <c r="L17">
-        <v>1.026139406719966</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.033857578740925</v>
+        <v>1.032841763355851</v>
       </c>
       <c r="N17">
-        <v>1.009195690948335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008269075877877</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035702243622766</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028592478431586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9885927752481389</v>
+        <v>0.9860579646352695</v>
       </c>
       <c r="D18">
-        <v>1.015103652261998</v>
+        <v>1.011229832583616</v>
       </c>
       <c r="E18">
-        <v>1.013221364999951</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.021055734190592</v>
+        <v>1.019012647400777</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046580079061704</v>
+        <v>1.041458594710089</v>
       </c>
       <c r="J18">
-        <v>1.016093770171847</v>
+        <v>1.013658233266324</v>
       </c>
       <c r="K18">
-        <v>1.028666672187597</v>
+        <v>1.024857499582804</v>
       </c>
       <c r="L18">
-        <v>1.026815717364796</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.034520653349668</v>
+        <v>1.032511074076783</v>
       </c>
       <c r="N18">
-        <v>1.009366824770077</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00830239749833</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035201980293236</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028715560884748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9889175318034493</v>
+        <v>0.9858960879040207</v>
       </c>
       <c r="D19">
-        <v>1.015345821811103</v>
+        <v>1.011055065864854</v>
       </c>
       <c r="E19">
-        <v>1.013519514649355</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.021348436394989</v>
+        <v>1.017995275441978</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046674867226367</v>
+        <v>1.041255482914027</v>
       </c>
       <c r="J19">
-        <v>1.016268741386374</v>
+        <v>1.013364908008736</v>
       </c>
       <c r="K19">
-        <v>1.028841669517215</v>
+        <v>1.024622129566</v>
       </c>
       <c r="L19">
-        <v>1.027045579669003</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.03474594529288</v>
+        <v>1.031447534215619</v>
       </c>
       <c r="N19">
-        <v>1.009424956739768</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008130005203314</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034033540111727</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028555605438087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9874606081175992</v>
+        <v>0.9833100059429397</v>
       </c>
       <c r="D20">
-        <v>1.014259578220512</v>
+        <v>1.009280938972367</v>
       </c>
       <c r="E20">
-        <v>1.012182688649652</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.020035767786344</v>
+        <v>1.014636783477202</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046248632588448</v>
+        <v>1.040443857589204</v>
       </c>
       <c r="J20">
-        <v>1.015483609083687</v>
+        <v>1.011499813053479</v>
       </c>
       <c r="K20">
-        <v>1.028056240199653</v>
+        <v>1.023162534029149</v>
       </c>
       <c r="L20">
-        <v>1.02601465013841</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.033735229644084</v>
+        <v>1.02842705436171</v>
       </c>
       <c r="N20">
-        <v>1.00916410706339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007371325417588</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.031111691609148</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027527563992642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.982642212764006</v>
+        <v>0.9778135124422245</v>
       </c>
       <c r="D21">
-        <v>1.010670554306236</v>
+        <v>1.005772411752242</v>
       </c>
       <c r="E21">
-        <v>1.007774735143865</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.015702746105546</v>
+        <v>1.010845763442228</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044821549260245</v>
+        <v>1.039331492753314</v>
       </c>
       <c r="J21">
-        <v>1.01288401948591</v>
+        <v>1.008269047875672</v>
       </c>
       <c r="K21">
-        <v>1.025452550969918</v>
+        <v>1.020645243092805</v>
       </c>
       <c r="L21">
-        <v>1.022610294798229</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.030392609341332</v>
+        <v>1.025624532151072</v>
       </c>
       <c r="N21">
-        <v>1.008300446229759</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006234290869056</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.028852392985864</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025750980451238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9795472699759394</v>
+        <v>0.9743106047196274</v>
       </c>
       <c r="D22">
-        <v>1.008368268911649</v>
+        <v>1.003541656774239</v>
       </c>
       <c r="E22">
-        <v>1.004953925098294</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.012926271603454</v>
+        <v>1.008531240162595</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043891793968676</v>
+        <v>1.038623356855857</v>
       </c>
       <c r="J22">
-        <v>1.01121216176564</v>
+        <v>1.006221256865483</v>
       </c>
       <c r="K22">
-        <v>1.023775751794216</v>
+        <v>1.019043277742081</v>
       </c>
       <c r="L22">
-        <v>1.0204278784479</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.028245933356513</v>
+        <v>1.023935565068916</v>
       </c>
       <c r="N22">
-        <v>1.007745028606884</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005515915498292</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.027515665418853</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024604625094024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.981194341479945</v>
+        <v>0.9761591024341715</v>
       </c>
       <c r="D23">
-        <v>1.009593195781814</v>
+        <v>1.004710973754656</v>
       </c>
       <c r="E23">
-        <v>1.006454100067205</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.014403207603034</v>
+        <v>1.009754470843284</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044387807579819</v>
+        <v>1.038992602435635</v>
       </c>
       <c r="J23">
-        <v>1.012102078192193</v>
+        <v>1.007295974860571</v>
       </c>
       <c r="K23">
-        <v>1.024668509256305</v>
+        <v>1.019879017034162</v>
       </c>
       <c r="L23">
-        <v>1.021588900461499</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.029388301731976</v>
+        <v>1.024826741153177</v>
       </c>
       <c r="N23">
-        <v>1.008040670160397</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005890372949686</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.028220984188744</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025185784111715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9875403196065162</v>
+        <v>0.9832940767517295</v>
       </c>
       <c r="D24">
-        <v>1.014318997020454</v>
+        <v>1.009248862642279</v>
       </c>
       <c r="E24">
-        <v>1.012255780633455</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.020107556639997</v>
+        <v>1.01449678852737</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046272018540029</v>
+        <v>1.0404066851253</v>
       </c>
       <c r="J24">
-        <v>1.015526576936374</v>
+        <v>1.01145072764392</v>
       </c>
       <c r="K24">
-        <v>1.028099236153948</v>
+        <v>1.023115481587226</v>
       </c>
       <c r="L24">
-        <v>1.026071035927872</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.033790528639065</v>
+        <v>1.028274018849019</v>
       </c>
       <c r="N24">
-        <v>1.009178382512326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007341911238706</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.030949315506791</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027466579582717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9946369485381298</v>
+        <v>0.9912474254720999</v>
       </c>
       <c r="D25">
-        <v>1.019614235960108</v>
+        <v>1.014329574127538</v>
       </c>
       <c r="E25">
-        <v>1.018786032949379</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.026512847404194</v>
+        <v>1.019832049764666</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048322111593166</v>
+        <v>1.041940100397964</v>
       </c>
       <c r="J25">
-        <v>1.019346158625243</v>
+        <v>1.016072982134861</v>
       </c>
       <c r="K25">
-        <v>1.031915509612686</v>
+        <v>1.026709441181878</v>
       </c>
       <c r="L25">
-        <v>1.031099555154857</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.038713069211197</v>
+        <v>1.032130106298316</v>
       </c>
       <c r="N25">
-        <v>1.010447391088946</v>
+        <v>1.008955611722118</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034001184666029</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030004850268466</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.997307122528924</v>
+        <v>0.9979852740910251</v>
       </c>
       <c r="D2">
-        <v>1.018194807359675</v>
+        <v>1.018499622054245</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.023941669923454</v>
+        <v>1.024217790283131</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043057123137491</v>
+        <v>1.043217223425532</v>
       </c>
       <c r="J2">
-        <v>1.019568676507809</v>
+        <v>1.020226412706753</v>
       </c>
       <c r="K2">
-        <v>1.029406348235047</v>
+        <v>1.029707106347551</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.035077239057832</v>
+        <v>1.03534973609638</v>
       </c>
       <c r="N2">
-        <v>1.010168457272093</v>
+        <v>1.012389517064592</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036333660073475</v>
+        <v>1.036549324432439</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03186300132339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032084518288573</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019967988960219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001605170327738</v>
+        <v>1.002007503136638</v>
       </c>
       <c r="D3">
-        <v>1.020955616756115</v>
+        <v>1.020979316855543</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.026870403829188</v>
+        <v>1.027025277842121</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043836507643896</v>
+        <v>1.043875888023824</v>
       </c>
       <c r="J3">
-        <v>1.02205217222392</v>
+        <v>1.022443590795574</v>
       </c>
       <c r="K3">
-        <v>1.031327207885424</v>
+        <v>1.031350620021291</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.037170639960744</v>
+        <v>1.037323659296979</v>
       </c>
       <c r="N3">
-        <v>1.011033195336468</v>
+        <v>1.013000647976731</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037990454249976</v>
+        <v>1.038111559208267</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033218553513094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033243678616885</v>
+      </c>
+      <c r="S3">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T3">
+        <v>1.020311081105356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004331100763971</v>
+        <v>1.004560992987161</v>
       </c>
       <c r="D4">
-        <v>1.022710049718427</v>
+        <v>1.022557048126053</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.028736075390149</v>
+        <v>1.028815198534969</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044320733990369</v>
+        <v>1.04428419837416</v>
       </c>
       <c r="J4">
-        <v>1.023624661683596</v>
+        <v>1.023848743327125</v>
       </c>
       <c r="K4">
-        <v>1.032541898201701</v>
+        <v>1.032390643686008</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.038499623763676</v>
+        <v>1.038577856667341</v>
       </c>
       <c r="N4">
-        <v>1.011580440606567</v>
+        <v>1.013387884132091</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039042258729525</v>
+        <v>1.039104174950291</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034078362513382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033980060259319</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020525676365849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005469324923462</v>
+        <v>1.005627604137491</v>
       </c>
       <c r="D5">
-        <v>1.023445805162781</v>
+        <v>1.023219283307791</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.029515906961922</v>
+        <v>1.029563581760311</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044522259383521</v>
+        <v>1.0444540909996</v>
       </c>
       <c r="J5">
-        <v>1.024282600245176</v>
+        <v>1.02443699950697</v>
       </c>
       <c r="K5">
-        <v>1.033051542327406</v>
+        <v>1.032827538279236</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.039054681342784</v>
+        <v>1.039101834051074</v>
       </c>
       <c r="N5">
-        <v>1.011810009156199</v>
+        <v>1.013550470803487</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039481550344138</v>
+        <v>1.039518868603109</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034445954568671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034296920116276</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020615806663896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005665802616643</v>
+        <v>1.005811536006566</v>
       </c>
       <c r="D6">
-        <v>1.023575774127266</v>
+        <v>1.023336451913679</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.029649301212535</v>
+        <v>1.029691463178356</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044559092129196</v>
+        <v>1.044485367469201</v>
       </c>
       <c r="J6">
-        <v>1.024398560053243</v>
+        <v>1.024540739585831</v>
       </c>
       <c r="K6">
-        <v>1.033143519838293</v>
+        <v>1.032906845523411</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.039150354238541</v>
+        <v>1.0391920566041</v>
       </c>
       <c r="N6">
-        <v>1.011851282066698</v>
+        <v>1.013579741258876</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039557269129642</v>
+        <v>1.039590273798402</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.034519801140538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034362674876679</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020632854087546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004362817345707</v>
+        <v>1.00460252784766</v>
       </c>
       <c r="D7">
-        <v>1.022738382227003</v>
+        <v>1.022591852710613</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.028754223544691</v>
+        <v>1.028837762348097</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044332265293537</v>
+        <v>1.04429885756173</v>
       </c>
       <c r="J7">
-        <v>1.023649526317127</v>
+        <v>1.023883180892137</v>
       </c>
       <c r="K7">
-        <v>1.032566995244456</v>
+        <v>1.032422138215767</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.038514678455478</v>
+        <v>1.038597277694968</v>
       </c>
       <c r="N7">
-        <v>1.011591348272293</v>
+        <v>1.013425597482086</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.03905417353276</v>
+        <v>1.039119545421191</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034116374491325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034024590920244</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020535086891803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9987921612235994</v>
+        <v>0.999412140378805</v>
       </c>
       <c r="D8">
-        <v>1.019157745545242</v>
+        <v>1.019392342424531</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.024947422279282</v>
+        <v>1.025198435500769</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043335850104676</v>
+        <v>1.04346719184205</v>
       </c>
       <c r="J8">
-        <v>1.020435458424648</v>
+        <v>1.021037408946881</v>
       </c>
       <c r="K8">
-        <v>1.030084318350793</v>
+        <v>1.030315886091904</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.035799744359624</v>
+        <v>1.036047562110497</v>
       </c>
       <c r="N8">
-        <v>1.010473281080962</v>
+        <v>1.012696203168835</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.03690547767759</v>
+        <v>1.037101609769201</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032365498162554</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032540348592951</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020101018078995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9885052368703242</v>
+        <v>0.98980812252606</v>
       </c>
       <c r="D9">
-        <v>1.012563191905631</v>
+        <v>1.013485674238483</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.017991904396253</v>
+        <v>1.018543714813126</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04140805754129</v>
+        <v>1.041835062025667</v>
       </c>
       <c r="J9">
-        <v>1.014470538376056</v>
+        <v>1.015725987867672</v>
       </c>
       <c r="K9">
-        <v>1.025455676239071</v>
+        <v>1.026363680275915</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.030799667304601</v>
+        <v>1.031342930659996</v>
       </c>
       <c r="N9">
-        <v>1.008392374970998</v>
+        <v>1.011240233264404</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032948221010001</v>
+        <v>1.033378181966698</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029089468497312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029742352487852</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019260226459699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9814252688989176</v>
+        <v>0.9832654123569368</v>
       </c>
       <c r="D10">
-        <v>1.008064619825333</v>
+        <v>1.009506537244411</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.013424343819547</v>
+        <v>1.014213561142843</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040066796979448</v>
+        <v>1.04071817408306</v>
       </c>
       <c r="J10">
-        <v>1.01039573616137</v>
+        <v>1.012159084279033</v>
       </c>
       <c r="K10">
-        <v>1.022289775891661</v>
+        <v>1.023706243712923</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.027555375233342</v>
+        <v>1.028330841523576</v>
       </c>
       <c r="N10">
-        <v>1.00698164319597</v>
+        <v>1.010385225279778</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.030432494891365</v>
+        <v>1.031046193938608</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026867923351013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027882012807676</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018693658990057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9791126359495944</v>
+        <v>0.9811728554611778</v>
       </c>
       <c r="D11">
-        <v>1.006719647674232</v>
+        <v>1.008353834853161</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.013293327177071</v>
+        <v>1.014176055559762</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039889183226269</v>
+        <v>1.040617719645229</v>
       </c>
       <c r="J11">
-        <v>1.009380930950233</v>
+        <v>1.011350396076742</v>
       </c>
       <c r="K11">
-        <v>1.021515944207239</v>
+        <v>1.023119911098218</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.027968830814062</v>
+        <v>1.028835494016764</v>
       </c>
       <c r="N11">
-        <v>1.0067269396725</v>
+        <v>1.010465164943778</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031199605019281</v>
+        <v>1.031885125580142</v>
       </c>
       <c r="Q11">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R11">
-        <v>1.026354005852545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027503859668601</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018627145333773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9785180691852099</v>
+        <v>0.9806285735176137</v>
       </c>
       <c r="D12">
-        <v>1.006425127615321</v>
+        <v>1.008098461261615</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.013883865674067</v>
+        <v>1.014785063191965</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.03996233168562</v>
+        <v>1.040701328205768</v>
       </c>
       <c r="J12">
-        <v>1.009260253458666</v>
+        <v>1.011276011421085</v>
       </c>
       <c r="K12">
-        <v>1.021430258947852</v>
+        <v>1.023072135008447</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.028749820541805</v>
+        <v>1.029634382679554</v>
       </c>
       <c r="N12">
-        <v>1.006761250296379</v>
+        <v>1.010599705476752</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032146009821545</v>
+        <v>1.032845448199501</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026293422269832</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027470080507191</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018656942114095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9792280317794203</v>
+        <v>0.9812394008053187</v>
       </c>
       <c r="D13">
-        <v>1.006941426879018</v>
+        <v>1.008522434529519</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.015098439284979</v>
+        <v>1.015951999674177</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040248993469378</v>
+        <v>1.040940848618988</v>
       </c>
       <c r="J13">
-        <v>1.009842334232563</v>
+        <v>1.011763912998257</v>
       </c>
       <c r="K13">
-        <v>1.02189324615651</v>
+        <v>1.023444667649764</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.029898900517873</v>
+        <v>1.030736805531389</v>
       </c>
       <c r="N13">
-        <v>1.007030965222974</v>
+        <v>1.010753730089993</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03333278200458</v>
+        <v>1.033995159744753</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026618255194106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027730710900436</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018767306169158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.980309458158611</v>
+        <v>0.9821856166812923</v>
       </c>
       <c r="D14">
-        <v>1.007666782860457</v>
+        <v>1.009125561152602</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.016216677530674</v>
+        <v>1.017008200446353</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040542926124185</v>
+        <v>1.041177116386353</v>
       </c>
       <c r="J14">
-        <v>1.010561827552752</v>
+        <v>1.012355487248901</v>
       </c>
       <c r="K14">
-        <v>1.022462330027486</v>
+        <v>1.023894156443995</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.030855693333792</v>
+        <v>1.031632898119332</v>
       </c>
       <c r="N14">
-        <v>1.007324210910638</v>
+        <v>1.01087080278204</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034263197975695</v>
+        <v>1.034877507804569</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027022065604204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028050091665781</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01888089881308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9808702789007063</v>
+        <v>0.9826811303738499</v>
       </c>
       <c r="D15">
-        <v>1.00803246984901</v>
+        <v>1.009432854544894</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.016660258092316</v>
+        <v>1.017422485124622</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04066920318095</v>
+        <v>1.041277017332664</v>
       </c>
       <c r="J15">
-        <v>1.010905060423597</v>
+        <v>1.012637004200033</v>
       </c>
       <c r="K15">
-        <v>1.022733383962612</v>
+        <v>1.024108095147433</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.031204458383214</v>
+        <v>1.031953006426919</v>
       </c>
       <c r="N15">
-        <v>1.007452944001649</v>
+        <v>1.010911405324444</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034576541104168</v>
+        <v>1.035168184770316</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027219649569238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028207855700819</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01893021608233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9837306094908574</v>
+        <v>0.9852459753192884</v>
       </c>
       <c r="D16">
-        <v>1.009836565445054</v>
+        <v>1.010972564022518</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.01840761234806</v>
+        <v>1.019040204559424</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041196504173883</v>
+        <v>1.041690510902576</v>
       </c>
       <c r="J16">
-        <v>1.012526026224034</v>
+        <v>1.01397874374305</v>
       </c>
       <c r="K16">
-        <v>1.023994297367315</v>
+        <v>1.025110387491703</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.032416553601959</v>
+        <v>1.033038292393348</v>
       </c>
       <c r="N16">
-        <v>1.008000810293809</v>
+        <v>1.011057745580984</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03549571002437</v>
+        <v>1.035987139266655</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028114376882023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028920017346081</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019136486681852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9853646343543351</v>
+        <v>0.9867387605010907</v>
       </c>
       <c r="D17">
-        <v>1.010846302179728</v>
+        <v>1.011853489603578</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.019161566611649</v>
+        <v>1.019733468524732</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041447074910368</v>
+        <v>1.04188799437374</v>
       </c>
       <c r="J17">
-        <v>1.013397082820711</v>
+        <v>1.0147162631326</v>
       </c>
       <c r="K17">
-        <v>1.024666792020704</v>
+        <v>1.02565682795942</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.032841763355851</v>
+        <v>1.03340412461248</v>
       </c>
       <c r="N17">
-        <v>1.008269075877877</v>
+        <v>1.011140940999814</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035702243622766</v>
+        <v>1.036146784734358</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028592478431586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029309235797903</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019238142742998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9860579646352695</v>
+        <v>0.9873950693332543</v>
       </c>
       <c r="D18">
-        <v>1.011229832583616</v>
+        <v>1.012202777913304</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.019012647400777</v>
+        <v>1.019570488312962</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041458594710089</v>
+        <v>1.04188918643824</v>
       </c>
       <c r="J18">
-        <v>1.013658233266324</v>
+        <v>1.014942881573027</v>
       </c>
       <c r="K18">
-        <v>1.024857499582804</v>
+        <v>1.025814148238964</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.032511074076783</v>
+        <v>1.033059749015323</v>
       </c>
       <c r="N18">
-        <v>1.00830239749833</v>
+        <v>1.011122492313574</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035201980293236</v>
+        <v>1.035635793615026</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028715560884748</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029407582678115</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019244742273276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9858960879040207</v>
+        <v>0.9872787700043886</v>
       </c>
       <c r="D19">
-        <v>1.011055065864854</v>
+        <v>1.012071081842293</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.017995275441978</v>
+        <v>1.01857608968999</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041255482914027</v>
+        <v>1.041710399253772</v>
       </c>
       <c r="J19">
-        <v>1.013364908008736</v>
+        <v>1.014693642575639</v>
       </c>
       <c r="K19">
-        <v>1.024622129566</v>
+        <v>1.025621211899024</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.031447534215619</v>
+        <v>1.032018831839128</v>
       </c>
       <c r="N19">
-        <v>1.008130005203314</v>
+        <v>1.010994654182339</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034033540111727</v>
+        <v>1.034485389455556</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028555605438087</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029278252455252</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019167821706573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833100059429397</v>
+        <v>0.9849680930556451</v>
       </c>
       <c r="D20">
-        <v>1.009280938972367</v>
+        <v>1.01055607311646</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.014636783477202</v>
+        <v>1.015344736691093</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040443857589204</v>
+        <v>1.04102110300817</v>
       </c>
       <c r="J20">
-        <v>1.011499813053479</v>
+        <v>1.013091025175237</v>
       </c>
       <c r="K20">
-        <v>1.023162534029149</v>
+        <v>1.024415812019918</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.02842705436171</v>
+        <v>1.029123029066679</v>
       </c>
       <c r="N20">
-        <v>1.007371325417588</v>
+        <v>1.010543421828231</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.031111691609148</v>
+        <v>1.031662488207776</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027527563992642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.028430335156226</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018848346347015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9778135124422245</v>
+        <v>0.980080038166389</v>
       </c>
       <c r="D21">
-        <v>1.005772411752242</v>
+        <v>1.007593628440596</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.010845763442228</v>
+        <v>1.011828152820398</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039331492753314</v>
+        <v>1.040154316824777</v>
       </c>
       <c r="J21">
-        <v>1.008269047875672</v>
+        <v>1.010434877008207</v>
       </c>
       <c r="K21">
-        <v>1.020645243092805</v>
+        <v>1.022432551307236</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.025624532151072</v>
+        <v>1.026588849512098</v>
       </c>
       <c r="N21">
-        <v>1.006234290869056</v>
+        <v>1.010238876663129</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.028852392985864</v>
+        <v>1.029615597699767</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025750980451238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027031674079725</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018424390447532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9743106047196274</v>
+        <v>0.9769673508549178</v>
       </c>
       <c r="D22">
-        <v>1.003541656774239</v>
+        <v>1.005713413993164</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.008531240162595</v>
+        <v>1.009690703686554</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038623356855857</v>
+        <v>1.039604243635454</v>
       </c>
       <c r="J22">
-        <v>1.006221256865483</v>
+        <v>1.008752846410305</v>
       </c>
       <c r="K22">
-        <v>1.019043277742081</v>
+        <v>1.021172530410725</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.023935565068916</v>
+        <v>1.025072599635602</v>
       </c>
       <c r="N22">
-        <v>1.005515915498292</v>
+        <v>1.010042719967695</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.027515665418853</v>
+        <v>1.02841556805622</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024604625094024</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026125813519869</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018154382837864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9761591024341715</v>
+        <v>0.9785885045566889</v>
       </c>
       <c r="D23">
-        <v>1.004710973754656</v>
+        <v>1.006681525589977</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.009754470843284</v>
+        <v>1.010810247549475</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038992602435635</v>
+        <v>1.039882155358944</v>
       </c>
       <c r="J23">
-        <v>1.007295974860571</v>
+        <v>1.009614401278688</v>
       </c>
       <c r="K23">
-        <v>1.019879017034162</v>
+        <v>1.021811999891479</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.024826741153177</v>
+        <v>1.02586262731185</v>
       </c>
       <c r="N23">
-        <v>1.005890372949686</v>
+        <v>1.010095125040025</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.028220984188744</v>
+        <v>1.029040832427</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025185784111715</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026567261296859</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01828798728649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9832940767517295</v>
+        <v>0.9849579297970995</v>
       </c>
       <c r="D24">
-        <v>1.009248862642279</v>
+        <v>1.01052937178191</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.01449678852737</v>
+        <v>1.015207760308853</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.0404066851253</v>
+        <v>1.040987282723229</v>
       </c>
       <c r="J24">
-        <v>1.01145072764392</v>
+        <v>1.013047565296728</v>
       </c>
       <c r="K24">
-        <v>1.023115481587226</v>
+        <v>1.024374069014741</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.028274018849019</v>
+        <v>1.028972972260033</v>
       </c>
       <c r="N24">
-        <v>1.007341911238706</v>
+        <v>1.010518922657228</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.030949315506791</v>
+        <v>1.031502497507716</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027466579582717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028370451506083</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018831520604105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9912474254720999</v>
+        <v>0.9923489112057355</v>
       </c>
       <c r="D25">
-        <v>1.014329574127538</v>
+        <v>1.015054991257958</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.019832049764666</v>
+        <v>1.020294826916702</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041940100397964</v>
+        <v>1.042281496393442</v>
       </c>
       <c r="J25">
-        <v>1.016072982134861</v>
+        <v>1.017136537308936</v>
       </c>
       <c r="K25">
-        <v>1.026709441181878</v>
+        <v>1.027424008278417</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.032130106298316</v>
+        <v>1.032586054004196</v>
       </c>
       <c r="N25">
-        <v>1.008955611722118</v>
+        <v>1.01159838595142</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034001184666029</v>
+        <v>1.034362039904807</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030004850268466</v>
+        <v>1.030523743698216</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019489954342843</v>
       </c>
     </row>
   </sheetData>
